--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,16 +3026,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>6947</v>
+        <v>500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,16 +3074,16 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>8000</v>
+        <v>6947</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,16 +3026,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>500</v>
+        <v>6947</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,16 +3074,16 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>6947</v>
+        <v>8000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PV SpA</t>
+          <t>Agrícola El Llano SpA</t>
         </is>
       </c>
       <c r="F19" t="n">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
+          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>31678</v>
+        <v>150000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>14/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155652129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Observatorio del Verano</t>
+          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ollague de Verano SpA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>90000</v>
+        <v>31678</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154054521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Portezuelo PMG</t>
+          <t>Parque Fotovoltaico Observatorio del Verano</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,11 +535,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PFV PORTEZUELO SPA</t>
+          <t>Ollague de Verano SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>15000</v>
+        <v>90000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154168767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154054521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica LNRG1 23/66 kV</t>
+          <t>Planta Fotovoltaica Portezuelo PMG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LENERGIA CHILE SpA</t>
+          <t>PFV PORTEZUELO SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/10/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153565841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154168767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Observatorio del Verano</t>
+          <t>Subestación Eléctrica LNRG1 23/66 kV</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,11 +631,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ollague de Verano SpA</t>
+          <t>LENERGIA CHILE SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -644,12 +644,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153566002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153565841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ampliación en subestación Portezuelo</t>
+          <t>Parque Fotovoltaico Observatorio del Verano</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Ollague de Verano SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>13000</v>
+        <v>90000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21/09/2021</t>
+          <t>22/10/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153264935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153566002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24/08/2021</t>
+          <t>21/09/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152946968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153264935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Yellowstone 7 MW</t>
+          <t>Ampliación en subestación Portezuelo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GR Kewiña SpA</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7700</v>
+        <v>13000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/08/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151298332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152946968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Yellowstone 7MW</t>
+          <t>Planta Fotovoltaica Yellowstone 7 MW</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151298332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Alcón Solar 6MW</t>
+          <t>Planta Fotovoltaica Yellowstone 7MW</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,11 +871,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GR LUMA SPA</t>
+          <t>GR Kewiña SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6600</v>
+        <v>7700</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -884,12 +884,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Portezuelo PMG</t>
+          <t>Planta Fotovoltaica Alcón Solar 6MW</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ASESORÍAS E INVERSIONES EENGINE LIMITADA</t>
+          <t>GR LUMA SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>15000</v>
+        <v>6600</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150861257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Campanas PMG</t>
+          <t>Planta Fotovoltaica Portezuelo PMG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Parque Solar Campanas SpA</t>
+          <t>ASESORÍAS E INVERSIONES EENGINE LIMITADA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10700</v>
+        <v>15000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146347477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150861257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rinconada de Alcones</t>
+          <t>Parque Fotovoltaico Campanas PMG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FOTOVOLTAICA RAULÍ SpA</t>
+          <t>Parque Solar Campanas SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>15000</v>
+        <v>10700</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21/11/2019</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144947621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146347477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Cóndor</t>
+          <t>Rinconada de Alcones</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>GR Lleuque SpA</t>
+          <t>FOTOVOLTAICA RAULÍ SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>29/10/2019</t>
+          <t>21/11/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144947621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Alcones</t>
+          <t>Planta Fotovoltaica Cóndor</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GR PIMIENTO SPA</t>
+          <t>GR Lleuque SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>11500</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>29/10/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/03/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142764960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alcones</t>
+          <t>Planta Fotovoltaica Alcones</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>RA SOLAR SpA</t>
+          <t>GR PIMIENTO SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>120000</v>
+        <v>11500</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>20/03/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142543430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142764960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Embalse El Llano</t>
+          <t>Parque Fotovoltaico Alcones</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Agrícola El Llano SpA</t>
+          <t>RA SOLAR SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1900</v>
+        <v>120000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141866404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142543430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PV SPA</t>
+          <t>Agrícola El Llano SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/08/2018</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141221831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141866404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Central Doña Luzma</t>
+          <t>Embalse El Llano</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Energías Alcones SpA.</t>
+          <t>PV SPA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>20000</v>
+        <v>1900</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/02/2018</t>
+          <t>23/08/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138435593&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141221831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>22/11/2017</t>
+          <t>20/02/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133488607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138435593&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos Marchigue</t>
+          <t>Central Doña Luzma</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Solesur</t>
+          <t>Energías Alcones SpA.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>23/05/2016</t>
+          <t>22/11/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131419839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133488607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1499,21 +1499,21 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>21/04/2016</t>
+          <t>23/05/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131351147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131419839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica La Esperanza</t>
+          <t>Centro de Manejo de Residuos Marchigue</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>GR Araucaria SpA</t>
+          <t>Solesur</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>18000</v>
+        <v>500</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/08/2015</t>
+          <t>21/04/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130697639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131351147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Marchigüe</t>
+          <t>Planta Fotovoltaica La Esperanza</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>GR CANELO SpA</t>
+          <t>GR Araucaria SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130702893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130697639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Santa Marta de Marchigüe</t>
+          <t>Planta Fotovoltaica Marchigüe</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>GR CANELO SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>200000</v>
+        <v>18000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/05/2015</t>
+          <t>20/08/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130475762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130702893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Maitenes</t>
+          <t>Proyecto Fotovoltaico Santa Marta de Marchigüe</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Maitenes Solar Spa</t>
+          <t>Andes Mainstream SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>23/04/2015</t>
+          <t>20/05/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130475762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Berlino</t>
+          <t>Planta Fotovoltaica Maitenes</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Berlino Solar Spa</t>
+          <t>Maitenes Solar Spa</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/03/2015</t>
+          <t>23/04/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Planta de Recuperación de Plomo Los Alcones</t>
+          <t>Planta Fotovoltaica Berlino</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Andacollo de Inversiones Ltda</t>
+          <t>Berlino Solar Spa</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>195</v>
+        <v>20000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>02/07/2014</t>
+          <t>20/03/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129613948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1835,21 +1835,21 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>16/12/2013</t>
+          <t>02/07/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129613948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Planta de Recuperación de Plomo Los Alcones</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Andacollo de Inversiones Ltda</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>16/12/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento para la Disposición de RILES en suelo, Viña Polkura S.A. RILES Polkura S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Viña Polkura S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>14/06/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Sistema de tratamiento para la Disposición de RILES en suelo, Viña Polkura S.A. RILES Polkura S.A.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Viña Polkura S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>14/06/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Regularización Tranque Santa Julia Regularización Tranque Santa Julia</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Agrícola Alcones Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>345</v>
+        <v>100</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>23/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6510354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Regularización Tranque Santa Julia Regularización Tranque Santa Julia</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Agrícola Alcones Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>200</v>
+        <v>345</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>23/01/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6510354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DIA Regularizacion Tranque 4 Marchigue</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>11/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6091290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DIA Regularización Tranque 5 Marchihue</t>
+          <t>DIA Regularizacion Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>422</v>
+        <v>650</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6096517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6091290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Regularización Tranque 5 Marchihue</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>200</v>
+        <v>422</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>11/10/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6096517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Tranque 4 Marchigue</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>25/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5607452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Declaración de Impacto Ambiental Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>25/05/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5607452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Tranque 4 Marchigue</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Aurelio Montes Badesen</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tranque 5 Marcchigue</t>
+          <t>Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2459,7 +2459,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>422</v>
+        <v>650</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Tranque 5 Marcchigue</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Aurelio Montes Badesen</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>50</v>
+        <v>422</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Planta de Aceite de Oliva Mirador de Alcones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Hornillas S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1500</v>
+        <v>22</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Planta de Aceite de Oliva Mirador de Alcones (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Hornillas S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3035,21 +3035,21 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,16 +3074,16 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>6947</v>
+        <v>8000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>200</v>
+        <v>6947</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL MARCHIGUE, LOTEO DFL-2 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,20 +3266,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>6947</v>
+        <v>200</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>27/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tranque Viña Montes (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL MARCHIGUE, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>600</v>
+        <v>6947</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>08/08/2006</t>
+          <t>27/11/2006</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1610897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Planta de Virutas de Madera (e-seia)</t>
+          <t>Tranque Viña Montes (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ITALO ARMANDO ZUNINO BESNIER</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>26/05/2006</t>
+          <t>08/08/2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1466509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1610897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Planta de Virutas de Madera (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,20 +3410,20 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>ITALO ARMANDO ZUNINO BESNIER</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>26/05/2006</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1466509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -3663,17 +3663,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE MARCHIGUE (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,20 +3794,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE MARCHIGUE</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>07/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=922111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE MARCHIGUE (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,20 +3842,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>ILUSTRE MUNICIPALIDAD DE MARCHIGUE</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>13/06/2005</t>
+          <t>07/07/2005</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=922111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>13/06/2005</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Plantel de Cerdos La Esperanza y Tranque de Riego La Cabaña (e-seia)</t>
+          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Agrícola y Pecuaria S.A.</t>
+          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>8000</v>
+        <v>10400</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>21/09/2004</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=435065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3999,17 +3999,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>13/08/2004</t>
+          <t>21/09/2004</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=420916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=435065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos, V.E.O. (e-seia)</t>
+          <t>Plantel de Cerdos La Esperanza y Tranque de Riego La Cabaña (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Viñedos Errázuriz Ovalle S.A.</t>
+          <t>Agrícola y Pecuaria S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>73</v>
+        <v>8000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>13/08/2004</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=407429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=420916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>05/07/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=390412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=407429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos, V.E.O. (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Viñedos Errázuriz Ovalle S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>05/07/2004</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=390412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamiento de Aguas Servidas de Marchigüe (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Marchigue</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>857</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>19/05/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=85681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Construcción Sistema de Tratamiento de Aguas Servidas de Marchigüe (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>I. Municipalidad de Marchigue</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>200</v>
+        <v>857</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>19/05/2003</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=85681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Embalse Las Tranqueras</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Agricola Alcones Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>30/07/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Embalse El Ciruelo</t>
+          <t>Embalse Las Tranqueras</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ganadera y Forestal Nacional Ltda.</t>
+          <t>Agricola Alcones Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>18/01/2001</t>
+          <t>30/07/2001</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Lago Rapel</t>
+          <t>Embalse El Ciruelo</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Ganadera y Forestal Nacional Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>18/01/2001</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,43 +4408,91 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>Plan Regulador Intercomunal Lago Rapel</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>13/01/2000</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Marchihue</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
           <t>Planta Vitivinícola Viña Canepa Fundo Trinidad</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
         <is>
           <t>José Canepa y Cía Ltda.</t>
         </is>
       </c>
-      <c r="F85" t="n">
+      <c r="F86" t="n">
         <v>8690</v>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>31/03/1999</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1832&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>Marchihue</t>
         </is>

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/04/2022</t>
+          <t>18/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,16 +3074,16 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>500</v>
+        <v>6947</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,16 +3122,16 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>6947</v>
+        <v>8000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,16 +3074,16 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>6947</v>
+        <v>500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,16 +3122,16 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>8000</v>
+        <v>6947</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2022</t>
+          <t>21/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,16 +3074,16 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>6947</v>
+        <v>500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,16 +3122,16 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>8000</v>
+        <v>6947</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/04/2022</t>
+          <t>16/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155652129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155896951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
+          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>31678</v>
+        <v>150000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>21/04/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155652129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Observatorio del Verano</t>
+          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ollague de Verano SpA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>90000</v>
+        <v>31678</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154054521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Portezuelo PMG</t>
+          <t>Parque Fotovoltaico Observatorio del Verano</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,11 +583,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PFV PORTEZUELO SPA</t>
+          <t>Ollague de Verano SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>15000</v>
+        <v>90000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154168767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154054521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica LNRG1 23/66 kV</t>
+          <t>Planta Fotovoltaica Portezuelo PMG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LENERGIA CHILE SpA</t>
+          <t>PFV PORTEZUELO SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/10/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153565841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154168767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Observatorio del Verano</t>
+          <t>Subestación Eléctrica LNRG1 23/66 kV</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,11 +679,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ollague de Verano SpA</t>
+          <t>LENERGIA CHILE SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -692,12 +692,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153566002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153565841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliación en subestación Portezuelo</t>
+          <t>Parque Fotovoltaico Observatorio del Verano</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Ollague de Verano SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>13000</v>
+        <v>90000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21/09/2021</t>
+          <t>22/10/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153264935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153566002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24/08/2021</t>
+          <t>21/09/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152946968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153264935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Yellowstone 7 MW</t>
+          <t>Ampliación en subestación Portezuelo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>GR Kewiña SpA</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7700</v>
+        <v>13000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/08/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151298332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152946968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Yellowstone 7MW</t>
+          <t>Planta Fotovoltaica Yellowstone 7 MW</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151298332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Alcón Solar 6MW</t>
+          <t>Planta Fotovoltaica Yellowstone 7MW</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,11 +919,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GR LUMA SPA</t>
+          <t>GR Kewiña SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6600</v>
+        <v>7700</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -932,12 +932,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Portezuelo PMG</t>
+          <t>Planta Fotovoltaica Alcón Solar 6MW</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ASESORÍAS E INVERSIONES EENGINE LIMITADA</t>
+          <t>GR LUMA SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>15000</v>
+        <v>6600</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150861257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Campanas PMG</t>
+          <t>Planta Fotovoltaica Portezuelo PMG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Parque Solar Campanas SpA</t>
+          <t>ASESORÍAS E INVERSIONES EENGINE LIMITADA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10700</v>
+        <v>15000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146347477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150861257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Rinconada de Alcones</t>
+          <t>Parque Fotovoltaico Campanas PMG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FOTOVOLTAICA RAULÍ SpA</t>
+          <t>Parque Solar Campanas SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>15000</v>
+        <v>10700</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21/11/2019</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144947621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146347477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Cóndor</t>
+          <t>Rinconada de Alcones</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GR Lleuque SpA</t>
+          <t>FOTOVOLTAICA RAULÍ SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>29/10/2019</t>
+          <t>21/11/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144947621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Alcones</t>
+          <t>Planta Fotovoltaica Cóndor</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GR PIMIENTO SPA</t>
+          <t>GR Lleuque SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>11500</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>29/10/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/03/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142764960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alcones</t>
+          <t>Planta Fotovoltaica Alcones</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>RA SOLAR SpA</t>
+          <t>GR PIMIENTO SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>120000</v>
+        <v>11500</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>20/03/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142543430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142764960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Embalse El Llano</t>
+          <t>Parque Fotovoltaico Alcones</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Agrícola El Llano SpA</t>
+          <t>RA SOLAR SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1900</v>
+        <v>120000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141866404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142543430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PV SPA</t>
+          <t>Agrícola El Llano SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23/08/2018</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141221831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141866404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Central Doña Luzma</t>
+          <t>Embalse El Llano</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Energías Alcones SpA.</t>
+          <t>PV SPA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>20000</v>
+        <v>1900</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/02/2018</t>
+          <t>23/08/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138435593&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141221831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>22/11/2017</t>
+          <t>20/02/2018</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133488607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138435593&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos Marchigue</t>
+          <t>Central Doña Luzma</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Solesur</t>
+          <t>Energías Alcones SpA.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>23/05/2016</t>
+          <t>22/11/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131419839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133488607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1547,21 +1547,21 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>21/04/2016</t>
+          <t>23/05/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131351147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131419839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica La Esperanza</t>
+          <t>Centro de Manejo de Residuos Marchigue</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>GR Araucaria SpA</t>
+          <t>Solesur</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>18000</v>
+        <v>500</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/08/2015</t>
+          <t>21/04/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130697639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131351147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Marchigüe</t>
+          <t>Planta Fotovoltaica La Esperanza</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>GR CANELO SpA</t>
+          <t>GR Araucaria SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130702893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130697639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Santa Marta de Marchigüe</t>
+          <t>Planta Fotovoltaica Marchigüe</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>GR CANELO SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>200000</v>
+        <v>18000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/05/2015</t>
+          <t>20/08/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130475762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130702893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Maitenes</t>
+          <t>Proyecto Fotovoltaico Santa Marta de Marchigüe</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Maitenes Solar Spa</t>
+          <t>Andes Mainstream SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>23/04/2015</t>
+          <t>20/05/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130475762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Berlino</t>
+          <t>Planta Fotovoltaica Maitenes</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Berlino Solar Spa</t>
+          <t>Maitenes Solar Spa</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20/03/2015</t>
+          <t>23/04/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Planta de Recuperación de Plomo Los Alcones</t>
+          <t>Planta Fotovoltaica Berlino</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Andacollo de Inversiones Ltda</t>
+          <t>Berlino Solar Spa</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>195</v>
+        <v>20000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>02/07/2014</t>
+          <t>20/03/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129613948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1883,21 +1883,21 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>16/12/2013</t>
+          <t>02/07/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129613948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Planta de Recuperación de Plomo Los Alcones</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Andacollo de Inversiones Ltda</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>16/12/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento para la Disposición de RILES en suelo, Viña Polkura S.A. RILES Polkura S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Viña Polkura S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>14/06/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Sistema de tratamiento para la Disposición de RILES en suelo, Viña Polkura S.A. RILES Polkura S.A.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Viña Polkura S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>14/06/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Regularización Tranque Santa Julia Regularización Tranque Santa Julia</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Agrícola Alcones Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>345</v>
+        <v>100</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>23/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6510354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Regularización Tranque Santa Julia Regularización Tranque Santa Julia</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Agrícola Alcones Ltda.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>200</v>
+        <v>345</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>23/01/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6510354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DIA Regularizacion Tranque 4 Marchigue</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>11/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6091290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DIA Regularización Tranque 5 Marchihue</t>
+          <t>DIA Regularizacion Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>422</v>
+        <v>650</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6096517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6091290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Regularización Tranque 5 Marchihue</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>200</v>
+        <v>422</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>11/10/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6096517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Tranque 4 Marchigue</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>25/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5607452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Declaración de Impacto Ambiental Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>25/05/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5607452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tranque 4 Marchigue</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Aurelio Montes Badesen</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tranque 5 Marcchigue</t>
+          <t>Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>422</v>
+        <v>650</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Tranque 5 Marcchigue</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Aurelio Montes Badesen</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>50</v>
+        <v>422</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Planta de Aceite de Oliva Mirador de Alcones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Hornillas S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1500</v>
+        <v>22</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Planta de Aceite de Oliva Mirador de Alcones (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Hornillas S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3083,21 +3083,21 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,16 +3122,16 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>6947</v>
+        <v>8000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>200</v>
+        <v>6947</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL MARCHIGUE, LOTEO DFL-2 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,20 +3314,20 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>6947</v>
+        <v>200</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>27/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Tranque Viña Montes (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL MARCHIGUE, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>600</v>
+        <v>6947</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08/08/2006</t>
+          <t>27/11/2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1610897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Planta de Virutas de Madera (e-seia)</t>
+          <t>Tranque Viña Montes (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ITALO ARMANDO ZUNINO BESNIER</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>26/05/2006</t>
+          <t>08/08/2006</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1466509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1610897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Planta de Virutas de Madera (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,20 +3458,20 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>ITALO ARMANDO ZUNINO BESNIER</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>26/05/2006</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1466509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE MARCHIGUE (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,20 +3842,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE MARCHIGUE</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>07/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=922111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE MARCHIGUE (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,20 +3890,20 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>ILUSTRE MUNICIPALIDAD DE MARCHIGUE</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>13/06/2005</t>
+          <t>07/07/2005</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=922111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>13/06/2005</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Plantel de Cerdos La Esperanza y Tranque de Riego La Cabaña (e-seia)</t>
+          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Agrícola y Pecuaria S.A.</t>
+          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>8000</v>
+        <v>10400</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>21/09/2004</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=435065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>13/08/2004</t>
+          <t>21/09/2004</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=420916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=435065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos, V.E.O. (e-seia)</t>
+          <t>Plantel de Cerdos La Esperanza y Tranque de Riego La Cabaña (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Viñedos Errázuriz Ovalle S.A.</t>
+          <t>Agrícola y Pecuaria S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>73</v>
+        <v>8000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>13/08/2004</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=407429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=420916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4143,17 +4143,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>05/07/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=390412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=407429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos, V.E.O. (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Viñedos Errázuriz Ovalle S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>05/07/2004</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=390412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamiento de Aguas Servidas de Marchigüe (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Marchigue</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>857</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>19/05/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=85681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Construcción Sistema de Tratamiento de Aguas Servidas de Marchigüe (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>I. Municipalidad de Marchigue</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>200</v>
+        <v>857</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>19/05/2003</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=85681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Embalse Las Tranqueras</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Agricola Alcones Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>30/07/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Embalse El Ciruelo</t>
+          <t>Embalse Las Tranqueras</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ganadera y Forestal Nacional Ltda.</t>
+          <t>Agricola Alcones Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>18/01/2001</t>
+          <t>30/07/2001</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Lago Rapel</t>
+          <t>Embalse El Ciruelo</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Ganadera y Forestal Nacional Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>18/01/2001</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,43 +4456,91 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>Plan Regulador Intercomunal Lago Rapel</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>13/01/2000</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Marchihue</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
           <t>Planta Vitivinícola Viña Canepa Fundo Trinidad</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
         <is>
           <t>José Canepa y Cía Ltda.</t>
         </is>
       </c>
-      <c r="F86" t="n">
+      <c r="F87" t="n">
         <v>8690</v>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>31/03/1999</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1832&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>Marchihue</t>
         </is>

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,16 +3122,16 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>500</v>
+        <v>6947</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,16 +3170,16 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,11 +3223,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>6947</v>
+        <v>8000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,16 +3122,16 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>6947</v>
+        <v>500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,16 +3170,16 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,11 +3223,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>8000</v>
+        <v>6947</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/05/2022</t>
+          <t>17/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/06/2022</t>
+          <t>23/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,16 +3122,16 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>6947</v>
+        <v>500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,16 +3170,16 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,11 +3223,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>8000</v>
+        <v>6947</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II</t>
+          <t>Nueva Subestación Seccionadora Loica y Nueva Línea 2x220 Kv Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II SPA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>150000</v>
+        <v>31678</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/05/2022</t>
+          <t>14/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155896951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156441314&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/04/2022</t>
+          <t>23/05/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155652129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155896951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
+          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>31678</v>
+        <v>150000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>21/04/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155652129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Observatorio del Verano</t>
+          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ollague de Verano SpA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>90000</v>
+        <v>31678</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154054521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Portezuelo PMG</t>
+          <t>Parque Fotovoltaico Observatorio del Verano</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,11 +631,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PFV PORTEZUELO SPA</t>
+          <t>Ollague de Verano SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>15000</v>
+        <v>90000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154168767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154054521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica LNRG1 23/66 kV</t>
+          <t>Planta Fotovoltaica Portezuelo PMG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LENERGIA CHILE SpA</t>
+          <t>PFV PORTEZUELO SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/10/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153565841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154168767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Observatorio del Verano</t>
+          <t>Subestación Eléctrica LNRG1 23/66 kV</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,11 +727,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ollague de Verano SpA</t>
+          <t>LENERGIA CHILE SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -740,12 +740,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153566002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153565841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación en subestación Portezuelo</t>
+          <t>Parque Fotovoltaico Observatorio del Verano</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Ollague de Verano SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>13000</v>
+        <v>90000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21/09/2021</t>
+          <t>22/10/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153264935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153566002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24/08/2021</t>
+          <t>21/09/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152946968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153264935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Yellowstone 7 MW</t>
+          <t>Ampliación en subestación Portezuelo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GR Kewiña SpA</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7700</v>
+        <v>13000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/08/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151298332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152946968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Yellowstone 7MW</t>
+          <t>Planta Fotovoltaica Yellowstone 7 MW</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151298332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Alcón Solar 6MW</t>
+          <t>Planta Fotovoltaica Yellowstone 7MW</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,11 +967,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>GR LUMA SPA</t>
+          <t>GR Kewiña SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6600</v>
+        <v>7700</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -980,12 +980,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Portezuelo PMG</t>
+          <t>Planta Fotovoltaica Alcón Solar 6MW</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ASESORÍAS E INVERSIONES EENGINE LIMITADA</t>
+          <t>GR LUMA SPA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>15000</v>
+        <v>6600</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150861257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Campanas PMG</t>
+          <t>Planta Fotovoltaica Portezuelo PMG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Parque Solar Campanas SpA</t>
+          <t>ASESORÍAS E INVERSIONES EENGINE LIMITADA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10700</v>
+        <v>15000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146347477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150861257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rinconada de Alcones</t>
+          <t>Parque Fotovoltaico Campanas PMG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FOTOVOLTAICA RAULÍ SpA</t>
+          <t>Parque Solar Campanas SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>15000</v>
+        <v>10700</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21/11/2019</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144947621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146347477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Cóndor</t>
+          <t>Rinconada de Alcones</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GR Lleuque SpA</t>
+          <t>FOTOVOLTAICA RAULÍ SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>29/10/2019</t>
+          <t>21/11/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144947621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Alcones</t>
+          <t>Planta Fotovoltaica Cóndor</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>GR PIMIENTO SPA</t>
+          <t>GR Lleuque SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>11500</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>29/10/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/03/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142764960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alcones</t>
+          <t>Planta Fotovoltaica Alcones</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>RA SOLAR SpA</t>
+          <t>GR PIMIENTO SPA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>120000</v>
+        <v>11500</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>20/03/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142543430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142764960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Embalse El Llano</t>
+          <t>Parque Fotovoltaico Alcones</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Agrícola El Llano SpA</t>
+          <t>RA SOLAR SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1900</v>
+        <v>120000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141866404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142543430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PV SPA</t>
+          <t>Agrícola El Llano SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23/08/2018</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141221831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141866404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Central Doña Luzma</t>
+          <t>Embalse El Llano</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Energías Alcones SpA.</t>
+          <t>PV SPA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>20000</v>
+        <v>1900</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/02/2018</t>
+          <t>23/08/2018</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138435593&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141221831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>22/11/2017</t>
+          <t>20/02/2018</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133488607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138435593&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos Marchigue</t>
+          <t>Central Doña Luzma</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Solesur</t>
+          <t>Energías Alcones SpA.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>23/05/2016</t>
+          <t>22/11/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131419839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133488607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1595,21 +1595,21 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>21/04/2016</t>
+          <t>23/05/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131351147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131419839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica La Esperanza</t>
+          <t>Centro de Manejo de Residuos Marchigue</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>GR Araucaria SpA</t>
+          <t>Solesur</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>18000</v>
+        <v>500</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/08/2015</t>
+          <t>21/04/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130697639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131351147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Marchigüe</t>
+          <t>Planta Fotovoltaica La Esperanza</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>GR CANELO SpA</t>
+          <t>GR Araucaria SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130702893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130697639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Santa Marta de Marchigüe</t>
+          <t>Planta Fotovoltaica Marchigüe</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>GR CANELO SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>200000</v>
+        <v>18000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/05/2015</t>
+          <t>20/08/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130475762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130702893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Maitenes</t>
+          <t>Proyecto Fotovoltaico Santa Marta de Marchigüe</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Maitenes Solar Spa</t>
+          <t>Andes Mainstream SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>23/04/2015</t>
+          <t>20/05/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130475762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Berlino</t>
+          <t>Planta Fotovoltaica Maitenes</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Berlino Solar Spa</t>
+          <t>Maitenes Solar Spa</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/03/2015</t>
+          <t>23/04/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Planta de Recuperación de Plomo Los Alcones</t>
+          <t>Planta Fotovoltaica Berlino</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Andacollo de Inversiones Ltda</t>
+          <t>Berlino Solar Spa</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>195</v>
+        <v>20000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>02/07/2014</t>
+          <t>20/03/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129613948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1931,21 +1931,21 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>16/12/2013</t>
+          <t>02/07/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129613948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Planta de Recuperación de Plomo Los Alcones</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Andacollo de Inversiones Ltda</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>16/12/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento para la Disposición de RILES en suelo, Viña Polkura S.A. RILES Polkura S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Viña Polkura S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>14/06/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Sistema de tratamiento para la Disposición de RILES en suelo, Viña Polkura S.A. RILES Polkura S.A.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Viña Polkura S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>14/06/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Regularización Tranque Santa Julia Regularización Tranque Santa Julia</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Agrícola Alcones Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>345</v>
+        <v>100</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>23/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6510354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Regularización Tranque Santa Julia Regularización Tranque Santa Julia</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Agrícola Alcones Ltda.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>200</v>
+        <v>345</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>23/01/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6510354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DIA Regularizacion Tranque 4 Marchigue</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6091290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DIA Regularización Tranque 5 Marchihue</t>
+          <t>DIA Regularizacion Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>422</v>
+        <v>650</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6096517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6091290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Regularización Tranque 5 Marchihue</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>200</v>
+        <v>422</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>11/10/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6096517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Tranque 4 Marchigue</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>25/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5607452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Declaración de Impacto Ambiental Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>25/05/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5607452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tranque 4 Marchigue</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Aurelio Montes Badesen</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tranque 5 Marcchigue</t>
+          <t>Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>422</v>
+        <v>650</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Tranque 5 Marcchigue</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Aurelio Montes Badesen</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>50</v>
+        <v>422</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Planta de Aceite de Oliva Mirador de Alcones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Hornillas S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1500</v>
+        <v>22</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Planta de Aceite de Oliva Mirador de Alcones (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Hornillas S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,20 +3122,20 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>6947</v>
+        <v>1</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>6947</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL MARCHIGUE, LOTEO DFL-2 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,20 +3362,20 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>6947</v>
+        <v>200</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>27/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tranque Viña Montes (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL MARCHIGUE, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>600</v>
+        <v>6947</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08/08/2006</t>
+          <t>27/11/2006</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1610897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Planta de Virutas de Madera (e-seia)</t>
+          <t>Tranque Viña Montes (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ITALO ARMANDO ZUNINO BESNIER</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>26/05/2006</t>
+          <t>08/08/2006</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1466509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1610897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Planta de Virutas de Madera (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,20 +3506,20 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>ITALO ARMANDO ZUNINO BESNIER</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>26/05/2006</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1466509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3663,17 +3663,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE MARCHIGUE (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,20 +3890,20 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE MARCHIGUE</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>07/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=922111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE MARCHIGUE (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,20 +3938,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>ILUSTRE MUNICIPALIDAD DE MARCHIGUE</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>13/06/2005</t>
+          <t>07/07/2005</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=922111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -3999,17 +3999,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>13/06/2005</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Plantel de Cerdos La Esperanza y Tranque de Riego La Cabaña (e-seia)</t>
+          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Agrícola y Pecuaria S.A.</t>
+          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>8000</v>
+        <v>10400</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>21/09/2004</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=435065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>13/08/2004</t>
+          <t>21/09/2004</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=420916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=435065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos, V.E.O. (e-seia)</t>
+          <t>Plantel de Cerdos La Esperanza y Tranque de Riego La Cabaña (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Viñedos Errázuriz Ovalle S.A.</t>
+          <t>Agrícola y Pecuaria S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>73</v>
+        <v>8000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>13/08/2004</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=407429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=420916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>05/07/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=390412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=407429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos, V.E.O. (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Viñedos Errázuriz Ovalle S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>05/07/2004</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=390412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamiento de Aguas Servidas de Marchigüe (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Marchigue</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>857</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>19/05/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=85681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Construcción Sistema de Tratamiento de Aguas Servidas de Marchigüe (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>I. Municipalidad de Marchigue</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>857</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>19/05/2003</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=85681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Embalse Las Tranqueras</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Agricola Alcones Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>30/07/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Embalse El Ciruelo</t>
+          <t>Embalse Las Tranqueras</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ganadera y Forestal Nacional Ltda.</t>
+          <t>Agricola Alcones Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>18/01/2001</t>
+          <t>30/07/2001</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Lago Rapel</t>
+          <t>Embalse El Ciruelo</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Ganadera y Forestal Nacional Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>18/01/2001</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,43 +4504,91 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>Plan Regulador Intercomunal Lago Rapel</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>13/01/2000</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Marchihue</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
           <t>Planta Vitivinícola Viña Canepa Fundo Trinidad</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>José Canepa y Cía Ltda.</t>
         </is>
       </c>
-      <c r="F87" t="n">
+      <c r="F88" t="n">
         <v>8690</v>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>31/03/1999</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1832&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>Marchihue</t>
         </is>

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/07/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,16 +3170,16 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>500</v>
+        <v>6947</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,16 +3218,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,11 +3271,11 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>6947</v>
+        <v>8000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,16 +3170,16 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>6947</v>
+        <v>500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,16 +3218,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,11 +3271,11 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>8000</v>
+        <v>6947</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>20/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,16 +3170,16 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>500</v>
+        <v>6947</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,16 +3218,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,11 +3271,11 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>6947</v>
+        <v>8000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,16 +3170,16 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>6947</v>
+        <v>500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3188,12 +3188,12 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,16 +3218,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,11 +3271,11 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>8000</v>
+        <v>6947</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nueva Subestación Seccionadora Loica y Nueva Línea 2x220 Kv Loica - Portezuelo</t>
+          <t>NUEVA SUBESTACIÓN SECCIONADORA LOICA Y NUEVA LÍNEA 2X220 KV LOICA ? PORTEZUELO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/07/2022</t>
+          <t>03/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156441314&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158390441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II</t>
+          <t>Nueva Subestación Seccionadora Loica y Nueva Línea 2x220 Kv Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II SPA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>150000</v>
+        <v>31678</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/05/2022</t>
+          <t>20/07/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155896951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156441314&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/04/2022</t>
+          <t>23/05/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155652129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155896951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
+          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>31678</v>
+        <v>150000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>21/04/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155652129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Observatorio del Verano</t>
+          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ollague de Verano SpA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>90000</v>
+        <v>31678</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154054521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Portezuelo PMG</t>
+          <t>Parque Fotovoltaico Observatorio del Verano</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,11 +679,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PFV PORTEZUELO SPA</t>
+          <t>Ollague de Verano SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>15000</v>
+        <v>90000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -692,12 +692,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154168767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154054521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica LNRG1 23/66 kV</t>
+          <t>Planta Fotovoltaica Portezuelo PMG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>LENERGIA CHILE SpA</t>
+          <t>PFV PORTEZUELO SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/10/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153565841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154168767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Observatorio del Verano</t>
+          <t>Subestación Eléctrica LNRG1 23/66 kV</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,11 +775,11 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ollague de Verano SpA</t>
+          <t>LENERGIA CHILE SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -788,12 +788,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153566002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153565841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ampliación en subestación Portezuelo</t>
+          <t>Parque Fotovoltaico Observatorio del Verano</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Ollague de Verano SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>13000</v>
+        <v>90000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>21/09/2021</t>
+          <t>22/10/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153264935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153566002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>24/08/2021</t>
+          <t>21/09/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152946968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153264935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Yellowstone 7 MW</t>
+          <t>Ampliación en subestación Portezuelo</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GR Kewiña SpA</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>7700</v>
+        <v>13000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/08/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151298332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152946968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Yellowstone 7MW</t>
+          <t>Planta Fotovoltaica Yellowstone 7 MW</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151298332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Alcón Solar 6MW</t>
+          <t>Planta Fotovoltaica Yellowstone 7MW</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,11 +1015,11 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>GR LUMA SPA</t>
+          <t>GR Kewiña SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>6600</v>
+        <v>7700</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1028,12 +1028,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Portezuelo PMG</t>
+          <t>Planta Fotovoltaica Alcón Solar 6MW</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ASESORÍAS E INVERSIONES EENGINE LIMITADA</t>
+          <t>GR LUMA SPA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>15000</v>
+        <v>6600</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150861257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Campanas PMG</t>
+          <t>Planta Fotovoltaica Portezuelo PMG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Parque Solar Campanas SpA</t>
+          <t>ASESORÍAS E INVERSIONES EENGINE LIMITADA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10700</v>
+        <v>15000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146347477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150861257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Rinconada de Alcones</t>
+          <t>Parque Fotovoltaico Campanas PMG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FOTOVOLTAICA RAULÍ SpA</t>
+          <t>Parque Solar Campanas SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>15000</v>
+        <v>10700</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>21/11/2019</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144947621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146347477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Cóndor</t>
+          <t>Rinconada de Alcones</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>GR Lleuque SpA</t>
+          <t>FOTOVOLTAICA RAULÍ SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>29/10/2019</t>
+          <t>21/11/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144947621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Alcones</t>
+          <t>Planta Fotovoltaica Cóndor</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>GR PIMIENTO SPA</t>
+          <t>GR Lleuque SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>11500</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>29/10/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/03/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142764960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alcones</t>
+          <t>Planta Fotovoltaica Alcones</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>RA SOLAR SpA</t>
+          <t>GR PIMIENTO SPA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>120000</v>
+        <v>11500</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>20/03/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142543430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142764960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Embalse El Llano</t>
+          <t>Parque Fotovoltaico Alcones</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Agrícola El Llano SpA</t>
+          <t>RA SOLAR SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1900</v>
+        <v>120000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141866404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142543430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PV SPA</t>
+          <t>Agrícola El Llano SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>23/08/2018</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141221831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141866404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Central Doña Luzma</t>
+          <t>Embalse El Llano</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Energías Alcones SpA.</t>
+          <t>PV SPA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>20000</v>
+        <v>1900</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/02/2018</t>
+          <t>23/08/2018</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138435593&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141221831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>22/11/2017</t>
+          <t>20/02/2018</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133488607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138435593&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos Marchigue</t>
+          <t>Central Doña Luzma</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Solesur</t>
+          <t>Energías Alcones SpA.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>23/05/2016</t>
+          <t>22/11/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131419839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133488607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1643,21 +1643,21 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>21/04/2016</t>
+          <t>23/05/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131351147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131419839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica La Esperanza</t>
+          <t>Centro de Manejo de Residuos Marchigue</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>GR Araucaria SpA</t>
+          <t>Solesur</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>18000</v>
+        <v>500</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/08/2015</t>
+          <t>21/04/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130697639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131351147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Marchigüe</t>
+          <t>Planta Fotovoltaica La Esperanza</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>GR CANELO SpA</t>
+          <t>GR Araucaria SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130702893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130697639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Santa Marta de Marchigüe</t>
+          <t>Planta Fotovoltaica Marchigüe</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA...</t>
+          <t>GR CANELO SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>200000</v>
+        <v>18000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20/05/2015</t>
+          <t>20/08/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130475762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130702893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Maitenes</t>
+          <t>Proyecto Fotovoltaico Santa Marta de Marchigüe</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Maitenes Solar Spa</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>23/04/2015</t>
+          <t>20/05/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130475762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Berlino</t>
+          <t>Planta Fotovoltaica Maitenes</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Berlino Solar Spa</t>
+          <t>Maitenes Solar Spa</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20/03/2015</t>
+          <t>23/04/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Planta de Recuperación de Plomo Los Alcones</t>
+          <t>Planta Fotovoltaica Berlino</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Andacollo de Inversiones Ltda</t>
+          <t>Berlino Solar Spa</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>195</v>
+        <v>20000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>02/07/2014</t>
+          <t>20/03/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129613948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1979,21 +1979,21 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>16/12/2013</t>
+          <t>02/07/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129613948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Planta de Recuperación de Plomo Los Alcones</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Andacollo de Inversiones Ltda</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>16/12/2013</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento para la Disposición de RILES en suelo, Viña Polkura S.A. RILES Polkura S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Viña Polkura S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>14/06/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Sistema de tratamiento para la Disposición de RILES en suelo, Viña Polkura S.A. RILES Polkura S.A.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Viña Polkura S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>14/06/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Regularización Tranque Santa Julia Regularización Tranque Santa Julia</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Agrícola Alcones Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>345</v>
+        <v>100</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>23/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6510354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Regularización Tranque Santa Julia Regularización Tranque Santa Julia</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Agrícola Alcones Ltda.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>200</v>
+        <v>345</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>23/01/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6510354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DIA Regularizacion Tranque 4 Marchigue</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>11/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6091290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DIA Regularización Tranque 5 Marchihue</t>
+          <t>DIA Regularizacion Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>422</v>
+        <v>650</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6096517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6091290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Regularización Tranque 5 Marchihue</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>200</v>
+        <v>422</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>11/10/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6096517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Tranque 4 Marchigue</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>25/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5607452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Declaración de Impacto Ambiental Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>25/05/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5607452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tranque 4 Marchigue</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Aurelio Montes Badesen</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tranque 5 Marcchigue</t>
+          <t>Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2603,7 +2603,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>422</v>
+        <v>650</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Tranque 5 Marcchigue</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Aurelio Montes Badesen</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>50</v>
+        <v>422</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Planta de Aceite de Oliva Mirador de Alcones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Hornillas S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1500</v>
+        <v>22</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Planta de Aceite de Oliva Mirador de Alcones (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Hornillas S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,20 +3170,20 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>6947</v>
+        <v>1</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>200</v>
+        <v>6947</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL MARCHIGUE, LOTEO DFL-2 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,20 +3410,20 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>6947</v>
+        <v>200</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>27/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Tranque Viña Montes (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL MARCHIGUE, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>600</v>
+        <v>6947</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>08/08/2006</t>
+          <t>27/11/2006</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1610897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Planta de Virutas de Madera (e-seia)</t>
+          <t>Tranque Viña Montes (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ITALO ARMANDO ZUNINO BESNIER</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>26/05/2006</t>
+          <t>08/08/2006</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1466509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1610897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Planta de Virutas de Madera (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,20 +3554,20 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>ITALO ARMANDO ZUNINO BESNIER</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>26/05/2006</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1466509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3807,17 +3807,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE MARCHIGUE (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,20 +3938,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE MARCHIGUE</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>07/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=922111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE MARCHIGUE (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,20 +3986,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>ILUSTRE MUNICIPALIDAD DE MARCHIGUE</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>13/06/2005</t>
+          <t>07/07/2005</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=922111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>13/06/2005</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Plantel de Cerdos La Esperanza y Tranque de Riego La Cabaña (e-seia)</t>
+          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Agrícola y Pecuaria S.A.</t>
+          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>8000</v>
+        <v>10400</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>21/09/2004</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=435065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4143,17 +4143,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>13/08/2004</t>
+          <t>21/09/2004</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=420916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=435065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos, V.E.O. (e-seia)</t>
+          <t>Plantel de Cerdos La Esperanza y Tranque de Riego La Cabaña (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Viñedos Errázuriz Ovalle S.A.</t>
+          <t>Agrícola y Pecuaria S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>73</v>
+        <v>8000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>13/08/2004</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=407429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=420916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>05/07/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=390412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=407429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos, V.E.O. (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Viñedos Errázuriz Ovalle S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>05/07/2004</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=390412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamiento de Aguas Servidas de Marchigüe (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Marchigue</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>857</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>19/05/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=85681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Construcción Sistema de Tratamiento de Aguas Servidas de Marchigüe (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>I. Municipalidad de Marchigue</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>200</v>
+        <v>857</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>19/05/2003</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=85681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Embalse Las Tranqueras</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Agricola Alcones Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>30/07/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Embalse El Ciruelo</t>
+          <t>Embalse Las Tranqueras</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ganadera y Forestal Nacional Ltda.</t>
+          <t>Agricola Alcones Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>18/01/2001</t>
+          <t>30/07/2001</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Lago Rapel</t>
+          <t>Embalse El Ciruelo</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Ganadera y Forestal Nacional Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>18/01/2001</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,43 +4552,91 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>Plan Regulador Intercomunal Lago Rapel</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>13/01/2000</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Marchihue</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
           <t>Planta Vitivinícola Viña Canepa Fundo Trinidad</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
         <is>
           <t>José Canepa y Cía Ltda.</t>
         </is>
       </c>
-      <c r="F88" t="n">
+      <c r="F89" t="n">
         <v>8690</v>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>31/03/1999</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1832&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>Marchihue</t>
         </is>

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,16 +3218,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>500</v>
+        <v>6947</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,11 +3319,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>6947</v>
+        <v>8000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,16 +3218,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>6947</v>
+        <v>500</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,11 +3319,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>8000</v>
+        <v>6947</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/02/2023</t>
+          <t>17/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,16 +3218,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>6947</v>
+        <v>500</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,11 +3319,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>8000</v>
+        <v>6947</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,16 +3218,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>500</v>
+        <v>6947</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,11 +3319,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>6947</v>
+        <v>8000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,16 +3218,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>6947</v>
+        <v>500</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,11 +3319,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>8000</v>
+        <v>6947</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NUEVA SUBESTACIÓN SECCIONADORA LOICA Y NUEVA LÍNEA 2X220 KV LOICA ? PORTEZUELO</t>
+          <t>Nueva Línea 1x66 kV Portezuelo-Alcones</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Empresa Eléctrica Cordillera SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>31678</v>
+        <v>4166</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/02/2023</t>
+          <t>24/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158390441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159260026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nueva Subestación Seccionadora Loica y Nueva Línea 2x220 Kv Loica - Portezuelo</t>
+          <t>NUEVA SUBESTACIÓN SECCIONADORA LOICA Y NUEVA LÍNEA 2X220 KV LOICA ? PORTEZUELO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/07/2022</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156441314&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158390441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II</t>
+          <t>Nueva Subestación Seccionadora Loica y Nueva Línea 2x220 Kv Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II SPA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>150000</v>
+        <v>31678</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/05/2022</t>
+          <t>20/07/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155896951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156441314&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21/04/2022</t>
+          <t>23/05/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155652129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155896951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
+          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>31678</v>
+        <v>150000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>21/04/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155652129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Observatorio del Verano</t>
+          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ollague de Verano SpA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>90000</v>
+        <v>31678</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154054521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Portezuelo PMG</t>
+          <t>Parque Fotovoltaico Observatorio del Verano</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,11 +727,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PFV PORTEZUELO SPA</t>
+          <t>Ollague de Verano SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>15000</v>
+        <v>90000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -740,12 +740,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154168767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154054521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica LNRG1 23/66 kV</t>
+          <t>Planta Fotovoltaica Portezuelo PMG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>LENERGIA CHILE SpA</t>
+          <t>PFV PORTEZUELO SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/10/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153565841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154168767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Observatorio del Verano</t>
+          <t>Subestación Eléctrica LNRG1 23/66 kV</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,11 +823,11 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ollague de Verano SpA</t>
+          <t>LENERGIA CHILE SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -836,12 +836,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153566002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153565841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ampliación en subestación Portezuelo</t>
+          <t>Parque Fotovoltaico Observatorio del Verano</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Ollague de Verano SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>13000</v>
+        <v>90000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21/09/2021</t>
+          <t>22/10/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153264935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153566002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>24/08/2021</t>
+          <t>21/09/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152946968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153264935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Yellowstone 7 MW</t>
+          <t>Ampliación en subestación Portezuelo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>GR Kewiña SpA</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>7700</v>
+        <v>13000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/08/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151298332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152946968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Yellowstone 7MW</t>
+          <t>Planta Fotovoltaica Yellowstone 7 MW</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151298332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Alcón Solar 6MW</t>
+          <t>Planta Fotovoltaica Yellowstone 7MW</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,11 +1063,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>GR LUMA SPA</t>
+          <t>GR Kewiña SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6600</v>
+        <v>7700</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Portezuelo PMG</t>
+          <t>Planta Fotovoltaica Alcón Solar 6MW</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ASESORÍAS E INVERSIONES EENGINE LIMITADA</t>
+          <t>GR LUMA SPA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>15000</v>
+        <v>6600</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150861257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Campanas PMG</t>
+          <t>Planta Fotovoltaica Portezuelo PMG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Parque Solar Campanas SpA</t>
+          <t>ASESORÍAS E INVERSIONES EENGINE LIMITADA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10700</v>
+        <v>15000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146347477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150861257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Rinconada de Alcones</t>
+          <t>Parque Fotovoltaico Campanas PMG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FOTOVOLTAICA RAULÍ SpA</t>
+          <t>Parque Solar Campanas SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>15000</v>
+        <v>10700</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21/11/2019</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144947621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146347477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Cóndor</t>
+          <t>Rinconada de Alcones</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>GR Lleuque SpA</t>
+          <t>FOTOVOLTAICA RAULÍ SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>29/10/2019</t>
+          <t>21/11/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144947621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Alcones</t>
+          <t>Planta Fotovoltaica Cóndor</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>GR PIMIENTO SPA</t>
+          <t>GR Lleuque SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>11500</v>
+        <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>29/10/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/03/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142764960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alcones</t>
+          <t>Planta Fotovoltaica Alcones</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>RA SOLAR SpA</t>
+          <t>GR PIMIENTO SPA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>120000</v>
+        <v>11500</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>20/03/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142543430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142764960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Embalse El Llano</t>
+          <t>Parque Fotovoltaico Alcones</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Agrícola El Llano SpA</t>
+          <t>RA SOLAR SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1900</v>
+        <v>120000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141866404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142543430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PV SPA</t>
+          <t>Agrícola El Llano SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>23/08/2018</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141221831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141866404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Central Doña Luzma</t>
+          <t>Embalse El Llano</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Energías Alcones SpA.</t>
+          <t>PV SPA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>20000</v>
+        <v>1900</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/02/2018</t>
+          <t>23/08/2018</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138435593&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141221831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>22/11/2017</t>
+          <t>20/02/2018</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133488607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138435593&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos Marchigue</t>
+          <t>Central Doña Luzma</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Solesur</t>
+          <t>Energías Alcones SpA.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>23/05/2016</t>
+          <t>22/11/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131419839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133488607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1691,21 +1691,21 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>21/04/2016</t>
+          <t>23/05/2016</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131351147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131419839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica La Esperanza</t>
+          <t>Centro de Manejo de Residuos Marchigue</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>GR Araucaria SpA</t>
+          <t>Solesur</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>18000</v>
+        <v>500</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/08/2015</t>
+          <t>21/04/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130697639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131351147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Marchigüe</t>
+          <t>Planta Fotovoltaica La Esperanza</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>GR CANELO SpA</t>
+          <t>GR Araucaria SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130702893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130697639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Santa Marta de Marchigüe</t>
+          <t>Planta Fotovoltaica Marchigüe</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA...</t>
+          <t>GR CANELO SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>200000</v>
+        <v>18000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/05/2015</t>
+          <t>20/08/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130475762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130702893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Maitenes</t>
+          <t>Proyecto Fotovoltaico Santa Marta de Marchigüe</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Maitenes Solar Spa</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23/04/2015</t>
+          <t>20/05/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130475762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Berlino</t>
+          <t>Planta Fotovoltaica Maitenes</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Berlino Solar Spa</t>
+          <t>Maitenes Solar Spa</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/03/2015</t>
+          <t>23/04/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Planta de Recuperación de Plomo Los Alcones</t>
+          <t>Planta Fotovoltaica Berlino</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Andacollo de Inversiones Ltda</t>
+          <t>Berlino Solar Spa</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>195</v>
+        <v>20000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>02/07/2014</t>
+          <t>20/03/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129613948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2027,21 +2027,21 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>16/12/2013</t>
+          <t>02/07/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129613948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Planta de Recuperación de Plomo Los Alcones</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Andacollo de Inversiones Ltda</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>16/12/2013</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento para la Disposición de RILES en suelo, Viña Polkura S.A. RILES Polkura S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Viña Polkura S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>14/06/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Sistema de tratamiento para la Disposición de RILES en suelo, Viña Polkura S.A. RILES Polkura S.A.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Viña Polkura S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>14/06/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Regularización Tranque Santa Julia Regularización Tranque Santa Julia</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Agrícola Alcones Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>345</v>
+        <v>100</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>23/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6510354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Regularización Tranque Santa Julia Regularización Tranque Santa Julia</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Agrícola Alcones Ltda.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>200</v>
+        <v>345</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>23/01/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6510354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DIA Regularizacion Tranque 4 Marchigue</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>11/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6091290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DIA Regularización Tranque 5 Marchihue</t>
+          <t>DIA Regularizacion Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>422</v>
+        <v>650</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6096517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6091290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Regularización Tranque 5 Marchihue</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>200</v>
+        <v>422</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>11/10/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6096517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Tranque 4 Marchigue</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>25/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5607452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Declaración de Impacto Ambiental Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>25/05/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5607452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tranque 4 Marchigue</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Aurelio Montes Badesen</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tranque 5 Marcchigue</t>
+          <t>Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>422</v>
+        <v>650</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Tranque 5 Marcchigue</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Aurelio Montes Badesen</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>50</v>
+        <v>422</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Planta de Aceite de Oliva Mirador de Alcones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Hornillas S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1500</v>
+        <v>22</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Planta de Aceite de Oliva Mirador de Alcones (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Hornillas S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,20 +3218,20 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>6947</v>
+        <v>1</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>200</v>
+        <v>6947</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL MARCHIGUE, LOTEO DFL-2 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,20 +3458,20 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>6947</v>
+        <v>200</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>27/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Tranque Viña Montes (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL MARCHIGUE, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>600</v>
+        <v>6947</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>08/08/2006</t>
+          <t>27/11/2006</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1610897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Planta de Virutas de Madera (e-seia)</t>
+          <t>Tranque Viña Montes (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ITALO ARMANDO ZUNINO BESNIER</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>26/05/2006</t>
+          <t>08/08/2006</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1466509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1610897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Planta de Virutas de Madera (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,20 +3602,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>ITALO ARMANDO ZUNINO BESNIER</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>26/05/2006</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1466509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3663,17 +3663,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE MARCHIGUE (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,20 +3986,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE MARCHIGUE</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>07/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=922111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE MARCHIGUE (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,20 +4034,20 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>ILUSTRE MUNICIPALIDAD DE MARCHIGUE</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>13/06/2005</t>
+          <t>07/07/2005</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=922111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>13/06/2005</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Plantel de Cerdos La Esperanza y Tranque de Riego La Cabaña (e-seia)</t>
+          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Agrícola y Pecuaria S.A.</t>
+          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>8000</v>
+        <v>10400</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>21/09/2004</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=435065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>13/08/2004</t>
+          <t>21/09/2004</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=420916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=435065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos, V.E.O. (e-seia)</t>
+          <t>Plantel de Cerdos La Esperanza y Tranque de Riego La Cabaña (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Viñedos Errázuriz Ovalle S.A.</t>
+          <t>Agrícola y Pecuaria S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>73</v>
+        <v>8000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>13/08/2004</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=407429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=420916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>05/07/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=390412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=407429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos, V.E.O. (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Viñedos Errázuriz Ovalle S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>05/07/2004</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=390412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamiento de Aguas Servidas de Marchigüe (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Marchigue</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>857</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>19/05/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=85681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Construcción Sistema de Tratamiento de Aguas Servidas de Marchigüe (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>I. Municipalidad de Marchigue</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>200</v>
+        <v>857</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>19/05/2003</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=85681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Embalse Las Tranqueras</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Agricola Alcones Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>30/07/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Embalse El Ciruelo</t>
+          <t>Embalse Las Tranqueras</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ganadera y Forestal Nacional Ltda.</t>
+          <t>Agricola Alcones Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>18/01/2001</t>
+          <t>30/07/2001</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Lago Rapel</t>
+          <t>Embalse El Ciruelo</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Ganadera y Forestal Nacional Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>18/01/2001</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,43 +4600,91 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>Plan Regulador Intercomunal Lago Rapel</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>13/01/2000</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Marchihue</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
           <t>Planta Vitivinícola Viña Canepa Fundo Trinidad</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
         <is>
           <t>José Canepa y Cía Ltda.</t>
         </is>
       </c>
-      <c r="F89" t="n">
+      <c r="F90" t="n">
         <v>8690</v>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>31/03/1999</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1832&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>Marchihue</t>
         </is>

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>500</v>
+        <v>6947</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>6947</v>
+        <v>8000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>6947</v>
+        <v>500</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>8000</v>
+        <v>6947</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nueva Línea 1x66 kV Portezuelo-Alcones</t>
+          <t>Parque FV Portezuelo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Cordillera SpA</t>
+          <t>Cox Energy PMGD SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4166</v>
+        <v>146000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/05/2023</t>
+          <t>14/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159260026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159587468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NUEVA SUBESTACIÓN SECCIONADORA LOICA Y NUEVA LÍNEA 2X220 KV LOICA ? PORTEZUELO</t>
+          <t>Nueva Línea 1x66 kV Portezuelo-Alcones</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Empresa Eléctrica Cordillera SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>31678</v>
+        <v>4166</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/02/2023</t>
+          <t>24/05/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158390441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159260026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nueva Subestación Seccionadora Loica y Nueva Línea 2x220 Kv Loica - Portezuelo</t>
+          <t>NUEVA SUBESTACIÓN SECCIONADORA LOICA Y NUEVA LÍNEA 2X220 KV LOICA ? PORTEZUELO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/07/2022</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156441314&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158390441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II</t>
+          <t>Nueva Subestación Seccionadora Loica y Nueva Línea 2x220 Kv Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II SPA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>150000</v>
+        <v>31678</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/05/2022</t>
+          <t>20/07/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155896951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156441314&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21/04/2022</t>
+          <t>23/05/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155652129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155896951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
+          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>31678</v>
+        <v>150000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>21/04/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155652129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Observatorio del Verano</t>
+          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ollague de Verano SpA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>90000</v>
+        <v>31678</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154054521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Portezuelo PMG</t>
+          <t>Parque Fotovoltaico Observatorio del Verano</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,11 +775,11 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PFV PORTEZUELO SPA</t>
+          <t>Ollague de Verano SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>15000</v>
+        <v>90000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -788,12 +788,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154168767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154054521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica LNRG1 23/66 kV</t>
+          <t>Planta Fotovoltaica Portezuelo PMG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>LENERGIA CHILE SpA</t>
+          <t>PFV PORTEZUELO SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/10/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153565841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154168767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Observatorio del Verano</t>
+          <t>Subestación Eléctrica LNRG1 23/66 kV</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,11 +871,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ollague de Verano SpA</t>
+          <t>LENERGIA CHILE SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -884,12 +884,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153566002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153565841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ampliación en subestación Portezuelo</t>
+          <t>Parque Fotovoltaico Observatorio del Verano</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Ollague de Verano SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>13000</v>
+        <v>90000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21/09/2021</t>
+          <t>22/10/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153264935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153566002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24/08/2021</t>
+          <t>21/09/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152946968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153264935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Yellowstone 7 MW</t>
+          <t>Ampliación en subestación Portezuelo</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>GR Kewiña SpA</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>7700</v>
+        <v>13000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/08/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151298332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152946968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Yellowstone 7MW</t>
+          <t>Planta Fotovoltaica Yellowstone 7 MW</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151298332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Alcón Solar 6MW</t>
+          <t>Planta Fotovoltaica Yellowstone 7MW</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,11 +1111,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GR LUMA SPA</t>
+          <t>GR Kewiña SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6600</v>
+        <v>7700</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1124,12 +1124,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Portezuelo PMG</t>
+          <t>Planta Fotovoltaica Alcón Solar 6MW</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ASESORÍAS E INVERSIONES EENGINE LIMITADA</t>
+          <t>GR LUMA SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>15000</v>
+        <v>6600</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150861257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Campanas PMG</t>
+          <t>Planta Fotovoltaica Portezuelo PMG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Parque Solar Campanas SpA</t>
+          <t>ASESORÍAS E INVERSIONES EENGINE LIMITADA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10700</v>
+        <v>15000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146347477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150861257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Rinconada de Alcones</t>
+          <t>Parque Fotovoltaico Campanas PMG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FOTOVOLTAICA RAULÍ SpA</t>
+          <t>Parque Solar Campanas SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>15000</v>
+        <v>10700</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21/11/2019</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144947621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146347477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Cóndor</t>
+          <t>Rinconada de Alcones</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>GR Lleuque SpA</t>
+          <t>FOTOVOLTAICA RAULÍ SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>29/10/2019</t>
+          <t>21/11/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144947621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Alcones</t>
+          <t>Planta Fotovoltaica Cóndor</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>GR PIMIENTO SPA</t>
+          <t>GR Lleuque SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>11500</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>29/10/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/03/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142764960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alcones</t>
+          <t>Planta Fotovoltaica Alcones</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>RA SOLAR SpA</t>
+          <t>GR PIMIENTO SPA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>120000</v>
+        <v>11500</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>20/03/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142543430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142764960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Embalse El Llano</t>
+          <t>Parque Fotovoltaico Alcones</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Agrícola El Llano SpA</t>
+          <t>RA SOLAR SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1900</v>
+        <v>120000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141866404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142543430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PV SPA</t>
+          <t>Agrícola El Llano SpA</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>23/08/2018</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141221831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141866404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Central Doña Luzma</t>
+          <t>Embalse El Llano</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Energías Alcones SpA.</t>
+          <t>PV SPA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>20000</v>
+        <v>1900</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/02/2018</t>
+          <t>23/08/2018</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138435593&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141221831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>22/11/2017</t>
+          <t>20/02/2018</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133488607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138435593&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos Marchigue</t>
+          <t>Central Doña Luzma</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Solesur</t>
+          <t>Energías Alcones SpA.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>23/05/2016</t>
+          <t>22/11/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131419839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133488607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1739,21 +1739,21 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>21/04/2016</t>
+          <t>23/05/2016</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131351147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131419839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica La Esperanza</t>
+          <t>Centro de Manejo de Residuos Marchigue</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>GR Araucaria SpA</t>
+          <t>Solesur</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>18000</v>
+        <v>500</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20/08/2015</t>
+          <t>21/04/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130697639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131351147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Marchigüe</t>
+          <t>Planta Fotovoltaica La Esperanza</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>GR CANELO SpA</t>
+          <t>GR Araucaria SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130702893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130697639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Santa Marta de Marchigüe</t>
+          <t>Planta Fotovoltaica Marchigüe</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA...</t>
+          <t>GR CANELO SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>200000</v>
+        <v>18000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20/05/2015</t>
+          <t>20/08/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130475762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130702893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Maitenes</t>
+          <t>Proyecto Fotovoltaico Santa Marta de Marchigüe</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Maitenes Solar Spa</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>23/04/2015</t>
+          <t>20/05/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130475762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Berlino</t>
+          <t>Planta Fotovoltaica Maitenes</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Berlino Solar Spa</t>
+          <t>Maitenes Solar Spa</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/03/2015</t>
+          <t>23/04/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Planta de Recuperación de Plomo Los Alcones</t>
+          <t>Planta Fotovoltaica Berlino</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Andacollo de Inversiones Ltda</t>
+          <t>Berlino Solar Spa</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>195</v>
+        <v>20000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>02/07/2014</t>
+          <t>20/03/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129613948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2075,21 +2075,21 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>16/12/2013</t>
+          <t>02/07/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129613948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Planta de Recuperación de Plomo Los Alcones</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Andacollo de Inversiones Ltda</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>16/12/2013</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento para la Disposición de RILES en suelo, Viña Polkura S.A. RILES Polkura S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Viña Polkura S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>14/06/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Sistema de tratamiento para la Disposición de RILES en suelo, Viña Polkura S.A. RILES Polkura S.A.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Viña Polkura S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>14/06/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Regularización Tranque Santa Julia Regularización Tranque Santa Julia</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Agrícola Alcones Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>345</v>
+        <v>100</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>23/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6510354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Regularización Tranque Santa Julia Regularización Tranque Santa Julia</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Agrícola Alcones Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>200</v>
+        <v>345</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>23/01/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6510354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DIA Regularizacion Tranque 4 Marchigue</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>11/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6091290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DIA Regularización Tranque 5 Marchihue</t>
+          <t>DIA Regularizacion Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2459,7 +2459,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>422</v>
+        <v>650</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6096517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6091290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Regularización Tranque 5 Marchihue</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>200</v>
+        <v>422</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>11/10/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6096517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Tranque 4 Marchigue</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>25/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5607452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Declaración de Impacto Ambiental Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>25/05/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5607452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tranque 4 Marchigue</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Aurelio Montes Badesen</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tranque 5 Marcchigue</t>
+          <t>Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2699,7 +2699,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>422</v>
+        <v>650</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Tranque 5 Marcchigue</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Aurelio Montes Badesen</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>50</v>
+        <v>422</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Planta de Aceite de Oliva Mirador de Alcones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Hornillas S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1500</v>
+        <v>22</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Planta de Aceite de Oliva Mirador de Alcones (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Hornillas S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3275,21 +3275,21 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,11 +3367,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>6947</v>
+        <v>8000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>200</v>
+        <v>6947</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL MARCHIGUE, LOTEO DFL-2 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,20 +3506,20 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>6947</v>
+        <v>200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>27/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tranque Viña Montes (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL MARCHIGUE, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>600</v>
+        <v>6947</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08/08/2006</t>
+          <t>27/11/2006</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1610897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Planta de Virutas de Madera (e-seia)</t>
+          <t>Tranque Viña Montes (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ITALO ARMANDO ZUNINO BESNIER</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>26/05/2006</t>
+          <t>08/08/2006</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1466509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1610897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Planta de Virutas de Madera (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,20 +3650,20 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>ITALO ARMANDO ZUNINO BESNIER</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>26/05/2006</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1466509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3807,17 +3807,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE MARCHIGUE (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,20 +4034,20 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE MARCHIGUE</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>07/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=922111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE MARCHIGUE (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,20 +4082,20 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>ILUSTRE MUNICIPALIDAD DE MARCHIGUE</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>13/06/2005</t>
+          <t>07/07/2005</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=922111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4143,17 +4143,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>13/06/2005</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Plantel de Cerdos La Esperanza y Tranque de Riego La Cabaña (e-seia)</t>
+          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Agrícola y Pecuaria S.A.</t>
+          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>8000</v>
+        <v>10400</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>21/09/2004</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=435065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>13/08/2004</t>
+          <t>21/09/2004</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=420916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=435065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos, V.E.O. (e-seia)</t>
+          <t>Plantel de Cerdos La Esperanza y Tranque de Riego La Cabaña (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Viñedos Errázuriz Ovalle S.A.</t>
+          <t>Agrícola y Pecuaria S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>73</v>
+        <v>8000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>13/08/2004</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=407429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=420916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>05/07/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=390412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=407429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos, V.E.O. (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Viñedos Errázuriz Ovalle S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>05/07/2004</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=390412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamiento de Aguas Servidas de Marchigüe (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Marchigue</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>857</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>19/05/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=85681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Construcción Sistema de Tratamiento de Aguas Servidas de Marchigüe (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>I. Municipalidad de Marchigue</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>200</v>
+        <v>857</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>19/05/2003</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=85681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Embalse Las Tranqueras</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Agricola Alcones Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>30/07/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Embalse El Ciruelo</t>
+          <t>Embalse Las Tranqueras</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ganadera y Forestal Nacional Ltda.</t>
+          <t>Agricola Alcones Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>18/01/2001</t>
+          <t>30/07/2001</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Lago Rapel</t>
+          <t>Embalse El Ciruelo</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Ganadera y Forestal Nacional Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>18/01/2001</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,43 +4648,91 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>Plan Regulador Intercomunal Lago Rapel</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>13/01/2000</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Marchihue</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
           <t>Planta Vitivinícola Viña Canepa Fundo Trinidad</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
         <is>
           <t>José Canepa y Cía Ltda.</t>
         </is>
       </c>
-      <c r="F90" t="n">
+      <c r="F91" t="n">
         <v>8690</v>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>31/03/1999</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1832&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>Marchihue</t>
         </is>

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>500</v>
+        <v>6947</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>6947</v>
+        <v>8000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14/07/2023</t>
+          <t>18/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>6947</v>
+        <v>500</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>8000</v>
+        <v>6947</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2023</t>
+          <t>21/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>500</v>
+        <v>6947</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>6947</v>
+        <v>8000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque FV Portezuelo</t>
+          <t>Parque Fotovoltaico Andino Los Maitenes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cox Energy PMGD SpA</t>
+          <t>Andino Los Maitenes SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>146000</v>
+        <v>90000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/07/2023</t>
+          <t>11/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159587468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159673393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nueva Línea 1x66 kV Portezuelo-Alcones</t>
+          <t>Parque FV Portezuelo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Cordillera SpA</t>
+          <t>Cox Energy PMGD SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4166</v>
+        <v>146000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/05/2023</t>
+          <t>21/07/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159260026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159587468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NUEVA SUBESTACIÓN SECCIONADORA LOICA Y NUEVA LÍNEA 2X220 KV LOICA ? PORTEZUELO</t>
+          <t>Nueva Línea 1x66 kV Portezuelo-Alcones</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Empresa Eléctrica Cordillera SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>31678</v>
+        <v>4166</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/02/2023</t>
+          <t>24/05/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158390441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159260026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nueva Subestación Seccionadora Loica y Nueva Línea 2x220 Kv Loica - Portezuelo</t>
+          <t>NUEVA SUBESTACIÓN SECCIONADORA LOICA Y NUEVA LÍNEA 2X220 KV LOICA ? PORTEZUELO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20/07/2022</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156441314&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158390441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II</t>
+          <t>Nueva Subestación Seccionadora Loica y Nueva Línea 2x220 Kv Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II SPA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>150000</v>
+        <v>31678</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/05/2022</t>
+          <t>20/07/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155896951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156441314&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21/04/2022</t>
+          <t>23/05/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155652129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155896951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
+          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>31678</v>
+        <v>150000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>21/04/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155652129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Observatorio del Verano</t>
+          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ollague de Verano SpA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>90000</v>
+        <v>31678</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154054521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Portezuelo PMG</t>
+          <t>Parque Fotovoltaico Observatorio del Verano</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,11 +823,11 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PFV PORTEZUELO SPA</t>
+          <t>Ollague de Verano SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>15000</v>
+        <v>90000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -836,12 +836,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154168767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154054521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica LNRG1 23/66 kV</t>
+          <t>Planta Fotovoltaica Portezuelo PMG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>LENERGIA CHILE SpA</t>
+          <t>PFV PORTEZUELO SPA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/10/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153565841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154168767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Observatorio del Verano</t>
+          <t>Subestación Eléctrica LNRG1 23/66 kV</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,11 +919,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ollague de Verano SpA</t>
+          <t>LENERGIA CHILE SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -932,12 +932,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153566002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153565841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ampliación en subestación Portezuelo</t>
+          <t>Parque Fotovoltaico Observatorio del Verano</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Ollague de Verano SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>13000</v>
+        <v>90000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21/09/2021</t>
+          <t>22/10/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153264935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153566002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24/08/2021</t>
+          <t>21/09/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152946968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153264935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Yellowstone 7 MW</t>
+          <t>Ampliación en subestación Portezuelo</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>GR Kewiña SpA</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>7700</v>
+        <v>13000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/08/2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151298332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152946968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Yellowstone 7MW</t>
+          <t>Planta Fotovoltaica Yellowstone 7 MW</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151298332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Alcón Solar 6MW</t>
+          <t>Planta Fotovoltaica Yellowstone 7MW</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,11 +1159,11 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GR LUMA SPA</t>
+          <t>GR Kewiña SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>6600</v>
+        <v>7700</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Portezuelo PMG</t>
+          <t>Planta Fotovoltaica Alcón Solar 6MW</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ASESORÍAS E INVERSIONES EENGINE LIMITADA</t>
+          <t>GR LUMA SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>15000</v>
+        <v>6600</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150861257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Campanas PMG</t>
+          <t>Planta Fotovoltaica Portezuelo PMG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Parque Solar Campanas SpA</t>
+          <t>ASESORÍAS E INVERSIONES EENGINE LIMITADA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10700</v>
+        <v>15000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146347477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150861257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Rinconada de Alcones</t>
+          <t>Parque Fotovoltaico Campanas PMG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FOTOVOLTAICA RAULÍ SpA</t>
+          <t>Parque Solar Campanas SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>15000</v>
+        <v>10700</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>21/11/2019</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144947621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146347477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Cóndor</t>
+          <t>Rinconada de Alcones</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>GR Lleuque SpA</t>
+          <t>FOTOVOLTAICA RAULÍ SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>29/10/2019</t>
+          <t>21/11/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144947621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Alcones</t>
+          <t>Planta Fotovoltaica Cóndor</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>GR PIMIENTO SPA</t>
+          <t>GR Lleuque SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>11500</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>29/10/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/03/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142764960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alcones</t>
+          <t>Planta Fotovoltaica Alcones</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>RA SOLAR SpA</t>
+          <t>GR PIMIENTO SPA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>120000</v>
+        <v>11500</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>20/03/2019</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142543430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142764960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Embalse El Llano</t>
+          <t>Parque Fotovoltaico Alcones</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Agrícola El Llano SpA</t>
+          <t>RA SOLAR SpA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1900</v>
+        <v>120000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141866404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142543430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>PV SPA</t>
+          <t>Agrícola El Llano SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>23/08/2018</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141221831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141866404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Central Doña Luzma</t>
+          <t>Embalse El Llano</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Energías Alcones SpA.</t>
+          <t>PV SPA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>20000</v>
+        <v>1900</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/02/2018</t>
+          <t>23/08/2018</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138435593&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141221831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>22/11/2017</t>
+          <t>20/02/2018</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133488607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138435593&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos Marchigue</t>
+          <t>Central Doña Luzma</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Solesur</t>
+          <t>Energías Alcones SpA.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>23/05/2016</t>
+          <t>22/11/2017</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131419839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133488607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1787,21 +1787,21 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>21/04/2016</t>
+          <t>23/05/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131351147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131419839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica La Esperanza</t>
+          <t>Centro de Manejo de Residuos Marchigue</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>GR Araucaria SpA</t>
+          <t>Solesur</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>18000</v>
+        <v>500</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/08/2015</t>
+          <t>21/04/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130697639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131351147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Marchigüe</t>
+          <t>Planta Fotovoltaica La Esperanza</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>GR CANELO SpA</t>
+          <t>GR Araucaria SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130702893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130697639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Santa Marta de Marchigüe</t>
+          <t>Planta Fotovoltaica Marchigüe</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA...</t>
+          <t>GR CANELO SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>200000</v>
+        <v>18000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/05/2015</t>
+          <t>20/08/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130475762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130702893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Maitenes</t>
+          <t>Proyecto Fotovoltaico Santa Marta de Marchigüe</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Maitenes Solar Spa</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>23/04/2015</t>
+          <t>20/05/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130475762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Berlino</t>
+          <t>Planta Fotovoltaica Maitenes</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Berlino Solar Spa</t>
+          <t>Maitenes Solar Spa</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/03/2015</t>
+          <t>23/04/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Planta de Recuperación de Plomo Los Alcones</t>
+          <t>Planta Fotovoltaica Berlino</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Andacollo de Inversiones Ltda</t>
+          <t>Berlino Solar Spa</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>195</v>
+        <v>20000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>02/07/2014</t>
+          <t>20/03/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129613948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2123,21 +2123,21 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>16/12/2013</t>
+          <t>02/07/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129613948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Planta de Recuperación de Plomo Los Alcones</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Andacollo de Inversiones Ltda</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>16/12/2013</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento para la Disposición de RILES en suelo, Viña Polkura S.A. RILES Polkura S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Viña Polkura S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>14/06/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Sistema de tratamiento para la Disposición de RILES en suelo, Viña Polkura S.A. RILES Polkura S.A.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Viña Polkura S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>14/06/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Regularización Tranque Santa Julia Regularización Tranque Santa Julia</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Agrícola Alcones Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>345</v>
+        <v>100</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>23/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6510354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Regularización Tranque Santa Julia Regularización Tranque Santa Julia</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Agrícola Alcones Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>200</v>
+        <v>345</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>23/01/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6510354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DIA Regularizacion Tranque 4 Marchigue</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>11/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6091290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DIA Regularización Tranque 5 Marchihue</t>
+          <t>DIA Regularizacion Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>422</v>
+        <v>650</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6096517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6091290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Regularización Tranque 5 Marchihue</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>200</v>
+        <v>422</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>11/10/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6096517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Tranque 4 Marchigue</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>25/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5607452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Declaración de Impacto Ambiental Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>25/05/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5607452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tranque 4 Marchigue</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Aurelio Montes Badesen</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tranque 5 Marcchigue</t>
+          <t>Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>422</v>
+        <v>650</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Tranque 5 Marcchigue</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Aurelio Montes Badesen</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>50</v>
+        <v>422</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Planta de Aceite de Oliva Mirador de Alcones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Hornillas S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1500</v>
+        <v>22</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Planta de Aceite de Oliva Mirador de Alcones (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Hornillas S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,20 +3314,20 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>6947</v>
+        <v>1</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>500</v>
+        <v>6947</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,16 +3410,16 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,20 +3458,20 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL MARCHIGUE, LOTEO DFL-2 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,20 +3554,20 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>6947</v>
+        <v>200</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>27/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Tranque Viña Montes (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL MARCHIGUE, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>600</v>
+        <v>6947</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08/08/2006</t>
+          <t>27/11/2006</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1610897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Planta de Virutas de Madera (e-seia)</t>
+          <t>Tranque Viña Montes (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ITALO ARMANDO ZUNINO BESNIER</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>26/05/2006</t>
+          <t>08/08/2006</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1466509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1610897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Planta de Virutas de Madera (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,20 +3698,20 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>ITALO ARMANDO ZUNINO BESNIER</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>26/05/2006</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1466509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE MARCHIGUE (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,20 +4082,20 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE MARCHIGUE</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>07/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=922111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE MARCHIGUE (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,20 +4130,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>ILUSTRE MUNICIPALIDAD DE MARCHIGUE</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>13/06/2005</t>
+          <t>07/07/2005</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=922111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>13/06/2005</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Plantel de Cerdos La Esperanza y Tranque de Riego La Cabaña (e-seia)</t>
+          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Agrícola y Pecuaria S.A.</t>
+          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>8000</v>
+        <v>10400</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>21/09/2004</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=435065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>13/08/2004</t>
+          <t>21/09/2004</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=420916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=435065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos, V.E.O. (e-seia)</t>
+          <t>Plantel de Cerdos La Esperanza y Tranque de Riego La Cabaña (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Viñedos Errázuriz Ovalle S.A.</t>
+          <t>Agrícola y Pecuaria S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>73</v>
+        <v>8000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>13/08/2004</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=407429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=420916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>05/07/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=390412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=407429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos, V.E.O. (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Viñedos Errázuriz Ovalle S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>05/07/2004</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=390412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamiento de Aguas Servidas de Marchigüe (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Marchigue</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>857</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>19/05/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=85681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Construcción Sistema de Tratamiento de Aguas Servidas de Marchigüe (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>I. Municipalidad de Marchigue</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>200</v>
+        <v>857</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>19/05/2003</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=85681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Embalse Las Tranqueras</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Agricola Alcones Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>30/07/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Embalse El Ciruelo</t>
+          <t>Embalse Las Tranqueras</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Ganadera y Forestal Nacional Ltda.</t>
+          <t>Agricola Alcones Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>18/01/2001</t>
+          <t>30/07/2001</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Lago Rapel</t>
+          <t>Embalse El Ciruelo</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Ganadera y Forestal Nacional Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>18/01/2001</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,43 +4696,91 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>Plan Regulador Intercomunal Lago Rapel</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>13/01/2000</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Marchihue</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
           <t>Planta Vitivinícola Viña Canepa Fundo Trinidad</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
         <is>
           <t>José Canepa y Cía Ltda.</t>
         </is>
       </c>
-      <c r="F91" t="n">
+      <c r="F92" t="n">
         <v>8690</v>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>31/03/1999</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1832&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>Marchihue</t>
         </is>

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>6947</v>
+        <v>500</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,16 +3410,16 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>8000</v>
+        <v>6947</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>500</v>
+        <v>6947</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,16 +3410,16 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>6947</v>
+        <v>8000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Los Maitenes</t>
+          <t>Parque FV Portezuelo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Andino Los Maitenes SPA</t>
+          <t>Portezuelo SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>90000</v>
+        <v>146000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/08/2023</t>
+          <t>17/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159673393&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159799007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque FV Portezuelo</t>
+          <t>Parque Fotovoltaico Andino Los Maitenes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cox Energy PMGD SpA</t>
+          <t>Andino Los Maitenes SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>146000</v>
+        <v>90000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/07/2023</t>
+          <t>11/08/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159587468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159673393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nueva Línea 1x66 kV Portezuelo-Alcones</t>
+          <t>Parque FV Portezuelo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Cordillera SpA</t>
+          <t>Cox Energy PMGD SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4166</v>
+        <v>146000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/05/2023</t>
+          <t>21/07/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159260026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159587468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NUEVA SUBESTACIÓN SECCIONADORA LOICA Y NUEVA LÍNEA 2X220 KV LOICA ? PORTEZUELO</t>
+          <t>Nueva Línea 1x66 kV Portezuelo-Alcones</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Empresa Eléctrica Cordillera SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>31678</v>
+        <v>4166</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21/02/2023</t>
+          <t>24/05/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158390441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159260026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nueva Subestación Seccionadora Loica y Nueva Línea 2x220 Kv Loica - Portezuelo</t>
+          <t>NUEVA SUBESTACIÓN SECCIONADORA LOICA Y NUEVA LÍNEA 2X220 KV LOICA ? PORTEZUELO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/07/2022</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156441314&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158390441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II</t>
+          <t>Nueva Subestación Seccionadora Loica y Nueva Línea 2x220 Kv Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II SPA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>150000</v>
+        <v>31678</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/05/2022</t>
+          <t>20/07/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155896951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156441314&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21/04/2022</t>
+          <t>23/05/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155652129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155896951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
+          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>31678</v>
+        <v>150000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>21/04/2022</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155652129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Observatorio del Verano</t>
+          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ollague de Verano SpA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>90000</v>
+        <v>31678</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154054521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Portezuelo PMG</t>
+          <t>Parque Fotovoltaico Observatorio del Verano</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,11 +871,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PFV PORTEZUELO SPA</t>
+          <t>Ollague de Verano SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>15000</v>
+        <v>90000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -884,12 +884,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154168767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154054521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica LNRG1 23/66 kV</t>
+          <t>Planta Fotovoltaica Portezuelo PMG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>LENERGIA CHILE SpA</t>
+          <t>PFV PORTEZUELO SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/10/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153565841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154168767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Observatorio del Verano</t>
+          <t>Subestación Eléctrica LNRG1 23/66 kV</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,11 +967,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ollague de Verano SpA</t>
+          <t>LENERGIA CHILE SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -980,12 +980,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153566002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153565841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ampliación en subestación Portezuelo</t>
+          <t>Parque Fotovoltaico Observatorio del Verano</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Ollague de Verano SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>13000</v>
+        <v>90000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21/09/2021</t>
+          <t>22/10/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153264935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153566002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24/08/2021</t>
+          <t>21/09/2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152946968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153264935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Yellowstone 7 MW</t>
+          <t>Ampliación en subestación Portezuelo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GR Kewiña SpA</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>7700</v>
+        <v>13000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/08/2021</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151298332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152946968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Yellowstone 7MW</t>
+          <t>Planta Fotovoltaica Yellowstone 7 MW</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151298332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Alcón Solar 6MW</t>
+          <t>Planta Fotovoltaica Yellowstone 7MW</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,11 +1207,11 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>GR LUMA SPA</t>
+          <t>GR Kewiña SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6600</v>
+        <v>7700</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1220,12 +1220,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Portezuelo PMG</t>
+          <t>Planta Fotovoltaica Alcón Solar 6MW</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ASESORÍAS E INVERSIONES EENGINE LIMITADA</t>
+          <t>GR LUMA SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>15000</v>
+        <v>6600</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150861257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Campanas PMG</t>
+          <t>Planta Fotovoltaica Portezuelo PMG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Parque Solar Campanas SpA</t>
+          <t>ASESORÍAS E INVERSIONES EENGINE LIMITADA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10700</v>
+        <v>15000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146347477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150861257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Rinconada de Alcones</t>
+          <t>Parque Fotovoltaico Campanas PMG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FOTOVOLTAICA RAULÍ SpA</t>
+          <t>Parque Solar Campanas SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>15000</v>
+        <v>10700</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>21/11/2019</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144947621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146347477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Cóndor</t>
+          <t>Rinconada de Alcones</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>GR Lleuque SpA</t>
+          <t>FOTOVOLTAICA RAULÍ SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>29/10/2019</t>
+          <t>21/11/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144947621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Alcones</t>
+          <t>Planta Fotovoltaica Cóndor</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>GR PIMIENTO SPA</t>
+          <t>GR Lleuque SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>11500</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>29/10/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/03/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142764960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alcones</t>
+          <t>Planta Fotovoltaica Alcones</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>RA SOLAR SpA</t>
+          <t>GR PIMIENTO SPA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>120000</v>
+        <v>11500</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>20/03/2019</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142543430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142764960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Embalse El Llano</t>
+          <t>Parque Fotovoltaico Alcones</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Agrícola El Llano SpA</t>
+          <t>RA SOLAR SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1900</v>
+        <v>120000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141866404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142543430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PV SPA</t>
+          <t>Agrícola El Llano SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>23/08/2018</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141221831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141866404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Central Doña Luzma</t>
+          <t>Embalse El Llano</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Energías Alcones SpA.</t>
+          <t>PV SPA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>20000</v>
+        <v>1900</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/02/2018</t>
+          <t>23/08/2018</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138435593&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141221831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>22/11/2017</t>
+          <t>20/02/2018</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133488607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138435593&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos Marchigue</t>
+          <t>Central Doña Luzma</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Solesur</t>
+          <t>Energías Alcones SpA.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>23/05/2016</t>
+          <t>22/11/2017</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131419839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133488607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1835,21 +1835,21 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>21/04/2016</t>
+          <t>23/05/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131351147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131419839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica La Esperanza</t>
+          <t>Centro de Manejo de Residuos Marchigue</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>GR Araucaria SpA</t>
+          <t>Solesur</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>18000</v>
+        <v>500</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20/08/2015</t>
+          <t>21/04/2016</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130697639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131351147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Marchigüe</t>
+          <t>Planta Fotovoltaica La Esperanza</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>GR CANELO SpA</t>
+          <t>GR Araucaria SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130702893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130697639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Santa Marta de Marchigüe</t>
+          <t>Planta Fotovoltaica Marchigüe</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA...</t>
+          <t>GR CANELO SpA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>200000</v>
+        <v>18000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/05/2015</t>
+          <t>20/08/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130475762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130702893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Maitenes</t>
+          <t>Proyecto Fotovoltaico Santa Marta de Marchigüe</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Maitenes Solar Spa</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>23/04/2015</t>
+          <t>20/05/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130475762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Berlino</t>
+          <t>Planta Fotovoltaica Maitenes</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Berlino Solar Spa</t>
+          <t>Maitenes Solar Spa</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/03/2015</t>
+          <t>23/04/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Planta de Recuperación de Plomo Los Alcones</t>
+          <t>Planta Fotovoltaica Berlino</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Andacollo de Inversiones Ltda</t>
+          <t>Berlino Solar Spa</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>195</v>
+        <v>20000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>02/07/2014</t>
+          <t>20/03/2015</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129613948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2171,21 +2171,21 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>16/12/2013</t>
+          <t>02/07/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129613948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Planta de Recuperación de Plomo Los Alcones</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Andacollo de Inversiones Ltda</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>16/12/2013</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento para la Disposición de RILES en suelo, Viña Polkura S.A. RILES Polkura S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Viña Polkura S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>14/06/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Sistema de tratamiento para la Disposición de RILES en suelo, Viña Polkura S.A. RILES Polkura S.A.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Viña Polkura S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>14/06/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Regularización Tranque Santa Julia Regularización Tranque Santa Julia</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Agrícola Alcones Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>345</v>
+        <v>100</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6510354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Regularización Tranque Santa Julia Regularización Tranque Santa Julia</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Agrícola Alcones Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>200</v>
+        <v>345</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>23/01/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6510354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DIA Regularizacion Tranque 4 Marchigue</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>11/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6091290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DIA Regularización Tranque 5 Marchihue</t>
+          <t>DIA Regularizacion Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>422</v>
+        <v>650</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6096517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6091290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Regularización Tranque 5 Marchihue</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>200</v>
+        <v>422</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>11/10/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6096517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Tranque 4 Marchigue</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>25/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5607452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Declaración de Impacto Ambiental Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>25/05/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5607452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tranque 4 Marchigue</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Aurelio Montes Badesen</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tranque 5 Marcchigue</t>
+          <t>Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>422</v>
+        <v>650</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Tranque 5 Marcchigue</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Aurelio Montes Badesen</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>50</v>
+        <v>422</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Planta de Aceite de Oliva Mirador de Alcones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Hornillas S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1500</v>
+        <v>22</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Planta de Aceite de Oliva Mirador de Alcones (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Hornillas S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3039,7 +3039,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3371,21 +3371,21 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,16 +3410,16 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>6947</v>
+        <v>8000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>200</v>
+        <v>6947</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL MARCHIGUE, LOTEO DFL-2 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,20 +3602,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>6947</v>
+        <v>200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>27/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tranque Viña Montes (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL MARCHIGUE, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>600</v>
+        <v>6947</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>08/08/2006</t>
+          <t>27/11/2006</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1610897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Planta de Virutas de Madera (e-seia)</t>
+          <t>Tranque Viña Montes (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ITALO ARMANDO ZUNINO BESNIER</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>26/05/2006</t>
+          <t>08/08/2006</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1466509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1610897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Planta de Virutas de Madera (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,20 +3746,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>ITALO ARMANDO ZUNINO BESNIER</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>26/05/2006</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1466509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3807,17 +3807,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -3999,17 +3999,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE MARCHIGUE (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,20 +4130,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE MARCHIGUE</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>07/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=922111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE MARCHIGUE (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,20 +4178,20 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>ILUSTRE MUNICIPALIDAD DE MARCHIGUE</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>13/06/2005</t>
+          <t>07/07/2005</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=922111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>13/06/2005</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Plantel de Cerdos La Esperanza y Tranque de Riego La Cabaña (e-seia)</t>
+          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Agrícola y Pecuaria S.A.</t>
+          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>8000</v>
+        <v>10400</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>21/09/2004</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=435065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>13/08/2004</t>
+          <t>21/09/2004</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=420916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=435065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos, V.E.O. (e-seia)</t>
+          <t>Plantel de Cerdos La Esperanza y Tranque de Riego La Cabaña (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Viñedos Errázuriz Ovalle S.A.</t>
+          <t>Agrícola y Pecuaria S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>73</v>
+        <v>8000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>13/08/2004</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=407429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=420916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>05/07/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=390412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=407429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos, V.E.O. (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Viñedos Errázuriz Ovalle S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>05/07/2004</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=390412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamiento de Aguas Servidas de Marchigüe (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Marchigue</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>857</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>19/05/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=85681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Construcción Sistema de Tratamiento de Aguas Servidas de Marchigüe (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>I. Municipalidad de Marchigue</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>200</v>
+        <v>857</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>19/05/2003</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=85681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Embalse Las Tranqueras</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Agricola Alcones Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>30/07/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Embalse El Ciruelo</t>
+          <t>Embalse Las Tranqueras</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ganadera y Forestal Nacional Ltda.</t>
+          <t>Agricola Alcones Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>18/01/2001</t>
+          <t>30/07/2001</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Lago Rapel</t>
+          <t>Embalse El Ciruelo</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Ganadera y Forestal Nacional Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>18/01/2001</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,43 +4744,91 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>Plan Regulador Intercomunal Lago Rapel</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>13/01/2000</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Marchihue</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
           <t>Planta Vitivinícola Viña Canepa Fundo Trinidad</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>José Canepa y Cía Ltda.</t>
         </is>
       </c>
-      <c r="F92" t="n">
+      <c r="F93" t="n">
         <v>8690</v>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>31/03/1999</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1832&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>Marchihue</t>
         </is>

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque FV Portezuelo</t>
+          <t>Parque Fotovoltaico Andino Los Maitenes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Portezuelo SpA</t>
+          <t>Andino Los Maitenes SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>146000</v>
+        <v>90000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/08/2023</t>
+          <t>15/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159799007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159673393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Los Maitenes</t>
+          <t>Parque FV Portezuelo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Andino Los Maitenes SPA</t>
+          <t>Portezuelo SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>90000</v>
+        <v>146000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11/08/2023</t>
+          <t>15/09/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159673393&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159799007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque FV Portezuelo</t>
+          <t>Modificación Línea de Transmisión Eléctrica Parque Fotovoltaico Alcones</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cox Energy PMGD SpA</t>
+          <t>RA SOLAR SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>146000</v>
+        <v>120000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/07/2023</t>
+          <t>18/08/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159587468&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159829715&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nueva Línea 1x66 kV Portezuelo-Alcones</t>
+          <t>Parque FV Portezuelo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Cordillera SpA</t>
+          <t>Cox Energy PMGD SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4166</v>
+        <v>146000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24/05/2023</t>
+          <t>21/07/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159260026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159587468&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NUEVA SUBESTACIÓN SECCIONADORA LOICA Y NUEVA LÍNEA 2X220 KV LOICA ? PORTEZUELO</t>
+          <t>Nueva Línea 1x66 kV Portezuelo-Alcones</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Empresa Eléctrica Cordillera SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>31678</v>
+        <v>4166</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21/02/2023</t>
+          <t>24/05/2023</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158390441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159260026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nueva Subestación Seccionadora Loica y Nueva Línea 2x220 Kv Loica - Portezuelo</t>
+          <t>NUEVA SUBESTACIÓN SECCIONADORA LOICA Y NUEVA LÍNEA 2X220 KV LOICA ? PORTEZUELO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/07/2022</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156441314&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158390441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II</t>
+          <t>Nueva Subestación Seccionadora Loica y Nueva Línea 2x220 Kv Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II SPA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>150000</v>
+        <v>31678</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/05/2022</t>
+          <t>20/07/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155896951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156441314&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21/04/2022</t>
+          <t>23/05/2022</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155652129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155896951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
+          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>PARQUE FOTOVOLTAICO ANDINO OCCIDENTE II SPA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>31678</v>
+        <v>150000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/11/2021</t>
+          <t>21/04/2022</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155652129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Observatorio del Verano</t>
+          <t>Nueva S/E Seccionadora Loica y Nueva Línea 2x220 kV Loica - Portezuelo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ollague de Verano SpA</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>90000</v>
+        <v>31678</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>23/11/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154054521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153946629&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Portezuelo PMG</t>
+          <t>Parque Fotovoltaico Observatorio del Verano</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,11 +919,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PFV PORTEZUELO SPA</t>
+          <t>Ollague de Verano SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>15000</v>
+        <v>90000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -932,12 +932,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154168767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154054521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica LNRG1 23/66 kV</t>
+          <t>Planta Fotovoltaica Portezuelo PMG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>LENERGIA CHILE SpA</t>
+          <t>PFV PORTEZUELO SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/10/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153565841&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154168767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Observatorio del Verano</t>
+          <t>Subestación Eléctrica LNRG1 23/66 kV</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,11 +1015,11 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ollague de Verano SpA</t>
+          <t>LENERGIA CHILE SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1028,12 +1028,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153566002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153565841&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ampliación en subestación Portezuelo</t>
+          <t>Parque Fotovoltaico Observatorio del Verano</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Ollague de Verano SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>13000</v>
+        <v>90000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21/09/2021</t>
+          <t>22/10/2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153264935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153566002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>24/08/2021</t>
+          <t>21/09/2021</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152946968&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153264935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Yellowstone 7 MW</t>
+          <t>Ampliación en subestación Portezuelo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GR Kewiña SpA</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>7700</v>
+        <v>13000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/08/2021</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151298332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152946968&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Yellowstone 7MW</t>
+          <t>Planta Fotovoltaica Yellowstone 7 MW</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151298332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Alcón Solar 6MW</t>
+          <t>Planta Fotovoltaica Yellowstone 7MW</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,11 +1255,11 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>GR LUMA SPA</t>
+          <t>GR Kewiña SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6600</v>
+        <v>7700</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1268,12 +1268,12 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Portezuelo PMG</t>
+          <t>Planta Fotovoltaica Alcón Solar 6MW</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ASESORÍAS E INVERSIONES EENGINE LIMITADA</t>
+          <t>GR LUMA SPA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>15000</v>
+        <v>6600</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>19/02/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150861257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151190466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Campanas PMG</t>
+          <t>Planta Fotovoltaica Portezuelo PMG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Parque Solar Campanas SpA</t>
+          <t>ASESORÍAS E INVERSIONES EENGINE LIMITADA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10700</v>
+        <v>15000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>19/02/2021</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146347477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150861257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Rinconada de Alcones</t>
+          <t>Parque Fotovoltaico Campanas PMG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FOTOVOLTAICA RAULÍ SpA</t>
+          <t>Parque Solar Campanas SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>15000</v>
+        <v>10700</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>21/11/2019</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144947621&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146347477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Cóndor</t>
+          <t>Rinconada de Alcones</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>GR Lleuque SpA</t>
+          <t>FOTOVOLTAICA RAULÍ SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>29/10/2019</t>
+          <t>21/11/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519149&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144947621&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Alcones</t>
+          <t>Planta Fotovoltaica Cóndor</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>GR PIMIENTO SPA</t>
+          <t>GR Lleuque SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>11500</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>29/10/2019</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144519149&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/03/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142764960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143214188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alcones</t>
+          <t>Planta Fotovoltaica Alcones</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>RA SOLAR SpA</t>
+          <t>GR PIMIENTO SPA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>120000</v>
+        <v>11500</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>20/03/2019</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142543430&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142764960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Embalse El Llano</t>
+          <t>Parque Fotovoltaico Alcones</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Agrícola El Llano SpA</t>
+          <t>RA SOLAR SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1900</v>
+        <v>120000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141866404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142543430&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PV SPA</t>
+          <t>Agrícola El Llano SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>23/08/2018</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141221831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141866404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Central Doña Luzma</t>
+          <t>Embalse El Llano</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Energías Alcones SpA.</t>
+          <t>PV SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>20000</v>
+        <v>1900</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/02/2018</t>
+          <t>23/08/2018</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138435593&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141221831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>22/11/2017</t>
+          <t>20/02/2018</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133488607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138435593&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Centro de Manejo de Residuos Marchigue</t>
+          <t>Central Doña Luzma</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Solesur</t>
+          <t>Energías Alcones SpA.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>23/05/2016</t>
+          <t>22/11/2017</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131419839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2133488607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1883,21 +1883,21 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>21/04/2016</t>
+          <t>23/05/2016</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131351147&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131419839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica La Esperanza</t>
+          <t>Centro de Manejo de Residuos Marchigue</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>GR Araucaria SpA</t>
+          <t>Solesur</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>18000</v>
+        <v>500</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/08/2015</t>
+          <t>21/04/2016</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130697639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131351147&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Marchigüe</t>
+          <t>Planta Fotovoltaica La Esperanza</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>GR CANELO SpA</t>
+          <t>GR Araucaria SpA</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130702893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130697639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Proyecto Fotovoltaico Santa Marta de Marchigüe</t>
+          <t>Planta Fotovoltaica Marchigüe</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Andes Mainstream SpA...</t>
+          <t>GR CANELO SpA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>200000</v>
+        <v>18000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/05/2015</t>
+          <t>20/08/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130475762&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130702893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Maitenes</t>
+          <t>Proyecto Fotovoltaico Santa Marta de Marchigüe</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Maitenes Solar Spa</t>
+          <t>Andes Mainstream SpA...</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>23/04/2015</t>
+          <t>20/05/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130475762&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Berlino</t>
+          <t>Planta Fotovoltaica Maitenes</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Berlino Solar Spa</t>
+          <t>Maitenes Solar Spa</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20/03/2015</t>
+          <t>23/04/2015</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130406140&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Planta de Recuperación de Plomo Los Alcones</t>
+          <t>Planta Fotovoltaica Berlino</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Andacollo de Inversiones Ltda</t>
+          <t>Berlino Solar Spa</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>195</v>
+        <v>20000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>02/07/2014</t>
+          <t>20/03/2015</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129613948&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130334989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2219,21 +2219,21 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>16/12/2013</t>
+          <t>02/07/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129613948&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Planta de Recuperación de Plomo Los Alcones</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Andacollo de Inversiones Ltda</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>16/12/2013</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128931901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento para la Disposición de RILES en suelo, Viña Polkura S.A. RILES Polkura S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Viña Polkura S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>14/06/2012</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Sistema de tratamiento para la Disposición de RILES en suelo, Viña Polkura S.A. RILES Polkura S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Viña Polkura S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>14/06/2012</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5994524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Regularización Tranque Santa Julia Regularización Tranque Santa Julia</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Agrícola Alcones Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>345</v>
+        <v>100</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>23/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6510354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Regularización Tranque Santa Julia Regularización Tranque Santa Julia</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Agrícola Alcones Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>200</v>
+        <v>345</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>23/01/2012</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6510354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DIA Regularizacion Tranque 4 Marchigue</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>650</v>
+        <v>100</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>11/10/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6091290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DIA Regularización Tranque 5 Marchihue</t>
+          <t>DIA Regularizacion Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2603,7 +2603,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>422</v>
+        <v>650</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6096517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6091290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>DIA Regularización Tranque 5 Marchihue</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>200</v>
+        <v>422</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>11/10/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6096517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Tranque 4 Marchigue</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>25/05/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5607452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Declaración de Impacto Ambiental Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>200</v>
+        <v>650</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>25/05/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5607452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Tranque 4 Marchigue</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Aurelio Montes Badesen</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Tranque 5 Marcchigue</t>
+          <t>Tranque 4 Marchigue</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>422</v>
+        <v>650</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
+          <t>Tranque 5 Marcchigue</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Aurelio Montes Badesen</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>50</v>
+        <v>422</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>06/07/2009</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4818859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Combustibles, Residuos Industriales Peligrosos y No Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>06/07/2009</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3877516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Planta de Aceite de Oliva Mirador de Alcones (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Hornillas S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1500</v>
+        <v>22</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>15/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788538&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Planta de Aceite de Oliva Mirador de Alcones (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Hornillas S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>15/05/2009</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3788538&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3135,17 +3135,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3419,21 +3419,21 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,11 +3463,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>8000</v>
+        <v>6947</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,16 +3506,16 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>6947</v>
+        <v>500</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,20 +3554,20 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL MARCHIGUE, LOTEO DFL-2 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,20 +3650,20 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>6947</v>
+        <v>200</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>27/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Tranque Viña Montes (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL MARCHIGUE, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Montes S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>600</v>
+        <v>6947</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08/08/2006</t>
+          <t>27/11/2006</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1610897&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1816935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Planta de Virutas de Madera (e-seia)</t>
+          <t>Tranque Viña Montes (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ITALO ARMANDO ZUNINO BESNIER</t>
+          <t>Montes S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>26/05/2006</t>
+          <t>08/08/2006</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1466509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1610897&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Planta de Virutas de Madera (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,20 +3794,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>ITALO ARMANDO ZUNINO BESNIER</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>26/05/2006</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1466509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>72</v>
+        <v>4000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE MARCHIGUE (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,20 +4178,20 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ILUSTRE MUNICIPALIDAD DE MARCHIGUE</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>07/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=922111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE MARCHIGUE (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,20 +4226,20 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>ILUSTRE MUNICIPALIDAD DE MARCHIGUE</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>13/06/2005</t>
+          <t>07/07/2005</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=922111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>06/06/2005</t>
+          <t>13/06/2005</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=892026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Plantel de Cerdos La Esperanza y Tranque de Riego La Cabaña (e-seia)</t>
+          <t>Aumento Potencia Subsistema Rapel (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Agrícola y Pecuaria S.A.</t>
+          <t>Empresa Eléctrica de Melipilla, Colchagua y Maule S.A</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>8000</v>
+        <v>10400</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>21/09/2004</t>
+          <t>06/06/2005</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=435065&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=880050&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>13/08/2004</t>
+          <t>21/09/2004</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=420916&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=435065&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos, V.E.O. (e-seia)</t>
+          <t>Plantel de Cerdos La Esperanza y Tranque de Riego La Cabaña (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Viñedos Errázuriz Ovalle S.A.</t>
+          <t>Agrícola y Pecuaria S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>73</v>
+        <v>8000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>13/08/2004</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=407429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=420916&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4479,17 +4479,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>05/07/2004</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=390412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=407429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
+          <t>Sistema de Acondicionamiento de Residuos Industriales Líquidos, V.E.O. (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Viñedos Errázuriz Ovalle S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>09/12/2003</t>
+          <t>05/07/2004</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=390412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Tratamiento de Aguas Servidas de Marchigüe (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano Sexta Región (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Marchigue</t>
+          <t>Secretaría Regional Ministerial de Vivienda y Urbanismo VI Región</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>857</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>19/05/2003</t>
+          <t>09/12/2003</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=85681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=219016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Construcción Sistema de Tratamiento de Aguas Servidas de Marchigüe (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>I. Municipalidad de Marchigue</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>200</v>
+        <v>857</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>19/05/2003</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=85681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Embalse Las Tranqueras</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Agricola Alcones Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>30/07/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4171&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Embalse El Ciruelo</t>
+          <t>Embalse Las Tranqueras</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Ganadera y Forestal Nacional Ltda.</t>
+          <t>Agricola Alcones Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>18/01/2001</t>
+          <t>30/07/2001</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4171&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Plan Regulador Intercomunal Lago Rapel</t>
+          <t>Embalse El Ciruelo</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+          <t>Ganadera y Forestal Nacional Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>18/01/2001</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,43 +4792,91 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>Plan Regulador Intercomunal Lago Rapel</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Servicio Regional Ministerial de Vivienda y Urbanismo VI Región</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>13/01/2000</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2602&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Marchihue</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
           <t>Planta Vitivinícola Viña Canepa Fundo Trinidad</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Sexta</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Sexta</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
         <is>
           <t>José Canepa y Cía Ltda.</t>
         </is>
       </c>
-      <c r="F93" t="n">
+      <c r="F94" t="n">
         <v>8690</v>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>31/03/1999</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1832&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>Marchihue</t>
         </is>

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,16 +3458,16 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>6947</v>
+        <v>500</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,16 +3506,16 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,11 +3559,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>8000</v>
+        <v>6947</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,16 +3458,16 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>500</v>
+        <v>6947</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,16 +3506,16 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,11 +3559,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>6947</v>
+        <v>8000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Los Maitenes</t>
+          <t>Parque FV Portezuelo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,11 +439,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Andino Los Maitenes SPA</t>
+          <t>Portezuelo SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>90000</v>
+        <v>146000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159673393&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159799007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque FV Portezuelo</t>
+          <t>Parque Fotovoltaico Andino Los Maitenes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Portezuelo SpA</t>
+          <t>Andino Los Maitenes SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>146000</v>
+        <v>90000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>21/08/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159799007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159673393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque FV Portezuelo</t>
+          <t>Parque Fotovoltaico Andino Los Maitenes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Portezuelo SpA</t>
+          <t>Andino Los Maitenes SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>146000</v>
+        <v>90000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>21/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159799007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159673393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Los Maitenes</t>
+          <t>Modificación Línea de Transmisión Eléctrica Parque Fotovoltaico Alcones</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Andino Los Maitenes SPA</t>
+          <t>RA SOLAR SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/08/2023</t>
+          <t>18/08/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159673393&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159829715&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación Línea de Transmisión Eléctrica Parque Fotovoltaico Alcones</t>
+          <t>Parque FV Portezuelo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,11 +535,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RA SOLAR SpA</t>
+          <t>Portezuelo SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>120000</v>
+        <v>146000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159829715&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159799007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Los Maitenes</t>
+          <t>Parque FV Portezuelo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Andino Los Maitenes SPA</t>
+          <t>Portezuelo SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>90000</v>
+        <v>146000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/08/2023</t>
+          <t>22/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159673393&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159799007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación Línea de Transmisión Eléctrica Parque Fotovoltaico Alcones</t>
+          <t>Parque Fotovoltaico Andino Los Maitenes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>RA SOLAR SpA</t>
+          <t>Andino Los Maitenes SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/08/2023</t>
+          <t>21/08/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159829715&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159673393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque FV Portezuelo</t>
+          <t>Modificación Línea de Transmisión Eléctrica Parque Fotovoltaico Alcones</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,11 +535,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Portezuelo SpA</t>
+          <t>RA SOLAR SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>146000</v>
+        <v>120000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159799007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159829715&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,16 +3458,16 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>6947</v>
+        <v>500</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,16 +3506,16 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,11 +3559,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>8000</v>
+        <v>6947</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque FV Portezuelo</t>
+          <t>Modificación Línea de Transmisión Eléctrica Parque Fotovoltaico Alcones</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Portezuelo SpA</t>
+          <t>RA SOLAR SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>146000</v>
+        <v>120000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/08/2023</t>
+          <t>23/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159799007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159829715&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andino Los Maitenes</t>
+          <t>Parque FV Portezuelo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Andino Los Maitenes SPA</t>
+          <t>Portezuelo SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>90000</v>
+        <v>146000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/08/2023</t>
+          <t>22/08/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159673393&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159799007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación Línea de Transmisión Eléctrica Parque Fotovoltaico Alcones</t>
+          <t>Parque Fotovoltaico Andino Los Maitenes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>RA SOLAR SpA</t>
+          <t>Andino Los Maitenes SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18/08/2023</t>
+          <t>21/08/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159829715&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159673393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NUEVA SUBESTACIÓN SECCIONADORA LOICA Y NUEVA LÍNEA 2X220 KV LOICA ? PORTEZUELO</t>
+          <t>Nueva Subestación Seccionadora Loica y Nueva Línea 2x220 Kv Loica Portezuelo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,16 +3458,16 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>6947</v>
+        <v>500</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,16 +3506,16 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>500</v>
+        <v>8000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,11 +3559,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>8000</v>
+        <v>6947</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">

--- a/data/Marchihue.xlsx
+++ b/data/Marchihue.xlsx
@@ -980,7 +980,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,16 +3458,16 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Sexta</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Agrícola y Viñedos Tierruca S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>500</v>
+        <v>6947</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,16 +3506,16 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Sexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>AGRICOLA Y PECUARIA S.A.</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>8000</v>
+        <v>500</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3524,12 +3524,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CONJUNTO HABITACIONAL, LOTEO DFL-2 (e-seia)</t>
+          <t>AMPLIACIÓN I - PLANTEL DE CERDOS LA ESPERANZA (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,11 +3559,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Agrícola y Viñedos Tierruca S.A.</t>
+          <t>AGRICOLA Y PECUARIA S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>6947</v>
+        <v>8000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3572,12 +3572,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1903751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1990667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
